--- a/data/searchResults.xlsx
+++ b/data/searchResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoAmazon\ProjectRPA2\ProjectRPA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B8A4E0-68BD-4B67-8ECE-BF653EC07F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4277CB9D-C09C-4462-B62D-630C569C0B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,1350 +33,1282 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="614">
-  <si>
-    <t>Nike Men's Kyrie Flytrap IV Basketball Shoe</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Kyrie-Flytrap-Basketball-Yellow/dp/B08JLR667K/ref=sr_1_6?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-6</t>
-  </si>
-  <si>
-    <t>124
-.</t>
-  </si>
-  <si>
-    <t>Nike Women's Revolution 5 Wide Running Shoe</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Revolution-Running-White-Anthracite-Regular/dp/B07NM2HPV8/ref=sr_1_7?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-7</t>
-  </si>
-  <si>
-    <t>94
-.</t>
-  </si>
-  <si>
-    <t>Nike Men's Air Force 1 '07 An20 Basketball Shoe</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Force-Mens-Cw6999-600-Size/dp/B085TSKC4K/ref=sr_1_8?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-8</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="592">
+  <si>
+    <t>Nike Men's Air Monarch IV Cross Trainer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/NIKE-Monarch-Cross-Trainer-Regular/dp/B004K4CIKC/ref=sr_1_10?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>74
+.</t>
+  </si>
+  <si>
+    <t>Nike Men's Air Max 2017 Running Shoes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Mens-Running-Black-Black-Black/dp/B00E4Z0034/ref=sr_1_11?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>216
+.</t>
+  </si>
+  <si>
+    <t>Nike Air Max Torch 3 Men's Running Shoes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Torch-Running-Shoes-Black/dp/B001CQ3CG0/ref=sr_1_12?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-12</t>
+  </si>
+  <si>
+    <t>100
+.</t>
+  </si>
+  <si>
+    <t>Nike Men's Flex Control TR3 Sneaker</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Control-Sneaker-Black-Anthracite-White-Regular/dp/B07FKCK4NG/ref=sr_1_13?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>104
+.</t>
+  </si>
+  <si>
+    <t>Nike Men's Training Sneaker</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Varsity-Compete-Training-Cj0813-003/dp/B07YKQ937Y/ref=sr_1_17?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-17</t>
+  </si>
+  <si>
+    <t>99
+.</t>
+  </si>
+  <si>
+    <t>Nike Men's Basketball Shoe</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Mens-Basketball-White-Black/dp/B08Q8QPZ1Y/ref=sr_1_18?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-18</t>
+  </si>
+  <si>
+    <t>194
+.</t>
+  </si>
+  <si>
+    <t>Nike Metcon Sport</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Metcon-Sport-Training-Shoes/dp/B07HDSGL9X/ref=sr_1_19?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-19</t>
+  </si>
+  <si>
+    <t>132
+.</t>
+  </si>
+  <si>
+    <t>Nike Men's Court Lite 2 Tennis Shoe</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/NIKE-Nike-Court-white-black/dp/B07HGB9VP4/ref=sr_1_20?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-20</t>
+  </si>
+  <si>
+    <t>87
+.</t>
+  </si>
+  <si>
+    <t>Nike Women's Zoom Winflo 6 Running Shoes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Womens-Zoom-Winflo-Aq8228-002/dp/B07H99XX77/ref=sr_1_21?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>90
+.</t>
+  </si>
+  <si>
+    <t>Nike Men's Shoes Adapt BB 2.0 Tie-Dye BQ5397-100</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Adapt-Mens-Basketball-Bq5397-100/dp/B08FWCZB8X/ref=sr_1_22?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-22</t>
+  </si>
+  <si>
+    <t>571
+.</t>
+  </si>
+  <si>
+    <t>Nike Men's Fitness Shoes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Mens-Free-Metcon-Black/dp/B07HDRTT87/ref=sr_1_23?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-23</t>
+  </si>
+  <si>
+    <t>89
+.</t>
+  </si>
+  <si>
+    <t>Nike Women's Tennis Shoes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Womens-Sneaker-White-Black-Regular/dp/B07CY27L3B/ref=sr_1_24?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-24</t>
+  </si>
+  <si>
+    <t>Nike Men's Shoes Lebron 18 Low CV7562-100</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Shoes-Lebron-CV7562-100-Numeric_7_Point_5/dp/B09BC7CP3F/ref=sr_1_25?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-25</t>
+  </si>
+  <si>
+    <t>198
+.</t>
+  </si>
+  <si>
+    <t>Nike Men's Trail Running Shoes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Quest-Running-Shoes-White-Iron/dp/B082R72Z11/ref=sr_1_26?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-26</t>
+  </si>
+  <si>
+    <t>Nike Women's Air Zoom Pegasus 36 Running Shoes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Pegasus-Womens-Running-Black-Half/dp/B07H9886SL/ref=sr_1_27?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-27</t>
+  </si>
+  <si>
+    <t>NIKE Women's Basketball Shoe</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Women-Force-White-Size/dp/B000SBYEGW/ref=sr_1_28?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-28</t>
+  </si>
+  <si>
+    <t>137
+.</t>
+  </si>
+  <si>
+    <t>Nike Men's Gymnastics Shoes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Reax-Sports-Shoes-White/dp/B084KSLLW4/ref=sr_1_32?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-32</t>
+  </si>
+  <si>
+    <t>Nike Women's Gymnastics Sneaker</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Womens-Blazer-Mid-77/dp/B088YQG81M/ref=sr_1_33?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-33</t>
+  </si>
+  <si>
+    <t>Nike Men's Revolution 5 Wide Running Shoe</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Revolution-Running-Anthracite-Regular/dp/B07NLV7NDZ/ref=sr_1_34?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-34</t>
+  </si>
+  <si>
+    <t>Nike Men’s Air Force 1 Low Sneaker</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/NIKE-Force-Trainers-488298-Sneakers/dp/B01408RQ9K/ref=sr_1_35?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-35</t>
+  </si>
+  <si>
+    <t>178
+.</t>
+  </si>
+  <si>
+    <t>Nike Mens Air Max 90 DD8555 300 St Patrick's 2021</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Mens-DD8555-Patricks-Numeric_9_Point_5/dp/B08YY1XF8P/ref=sr_1_36?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-36</t>
+  </si>
+  <si>
+    <t>299
+.</t>
+  </si>
+  <si>
+    <t>Nike Men's Air Zoom Pegasus 36 Running Shoes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Pegasus-Running-Shoes-Gunsmoke/dp/B07H8J1QV9/ref=sr_1_37?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-37</t>
+  </si>
+  <si>
+    <t>129
+.</t>
+  </si>
+  <si>
+    <t>Nike mens Varsity Royal/White-volt-black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Griffey-DJ5161-Varsity-Royal/dp/B095ZPCHSP/ref=sr_1_38?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-38</t>
+  </si>
+  <si>
+    <t>338
+.</t>
+  </si>
+  <si>
+    <t>Nike Alpha Huarache ELT 2 Low Mens Aj6873-004</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Alpha-Huarache-Aj6873-004-Black/dp/B081FL77DW/ref=sr_1_39?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-39</t>
+  </si>
+  <si>
+    <t>79
+.</t>
+  </si>
+  <si>
+    <t>Nike Womens Ashin Modern Fabric Low Top Lace Up Running Sneaker</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Modern-Womens-Running-Summit/dp/B075ZZC6Y6/ref=sr_1_40?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-40</t>
+  </si>
+  <si>
+    <t>Nike Lebron Witness 5 Mens Basketball Shoe Cq9380-101 Size 11 White/Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Cq9380-101/dp/B08NYK4FY5/ref=sr_1_41?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-41</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Alpha-Savage-Training-Shoes/dp/B07RGX3JSH/ref=sr_1_42?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-42</t>
+  </si>
+  <si>
+    <t>39
+.</t>
+  </si>
+  <si>
+    <t>Nike Adapt Bb 2.0 Mens Basketball Shoe Bq5397-101</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Adapt-Mens-Basketball-Bq5397-101/dp/B08N454MWB/ref=sr_1_43?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-43</t>
+  </si>
+  <si>
+    <t>339
+.</t>
+  </si>
+  <si>
+    <t>Nike Women's WMNS Revolution 5 Running Shoe</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Womens-Stroke-Running-Platinum/dp/B08PKCFXVM/ref=sr_1_44?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-44</t>
+  </si>
+  <si>
+    <t>Nike Metcon Sport Mens Training Shoes Aq7489-008 Size 11</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Metcon-Sport-Training-Aq7489-008/dp/B07TLNF451/ref=sr_1_45?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-45</t>
+  </si>
+  <si>
+    <t>139
+.</t>
+  </si>
+  <si>
+    <t>Nike Reposto Womens</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Reposto-Womens-Running-Cz5630-002/dp/B08BKKY6V8/ref=sr_1_46?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-46</t>
+  </si>
+  <si>
+    <t>Nike Women's Air Max 270 Running</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Womens-WMNS-White-Black-White/dp/B079QJTH57/ref=sr_1_47?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-47</t>
+  </si>
+  <si>
+    <t>214
+.</t>
+  </si>
+  <si>
+    <t>Nike Men's Running Shoes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Running-Shoes-White-Varsity/dp/B01IODLXCS/ref=sr_1_48?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-48</t>
+  </si>
+  <si>
+    <t>Nike Men's Shoes Blazer Mid '77 Indigo CI1166-100</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Blazer-Indigo-CI1166-100-Numeric_11_Point_5/dp/B097JC9MP8/ref=sr_1_49?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-49</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Reposto-Womens-Running-Cz5630-104/dp/B08PKBR9BP/ref=sr_1_50?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-50</t>
+  </si>
+  <si>
+    <t>Nike Men's Shoes Air Vapormax Plus Spider Man Catch DJ5189-001</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Vapormax-Spider-DJ5189-001-Numeric_11/dp/B099MZMJZC/ref=sr_1_51?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-51</t>
+  </si>
+  <si>
+    <t>Nike Women's Training</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Legend-Essential-Running-CQ9545-001/dp/B08GJ466DQ/ref=sr_1_52?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-52</t>
+  </si>
+  <si>
+    <t>Nike Reax 8 TR Men's Cross-Trainers Athletic Sneakers Shoes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Mens-Reax-Training-Black/dp/B07DCJ519Q/ref=sr_1_53?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-53</t>
+  </si>
+  <si>
+    <t>123
+.</t>
+  </si>
+  <si>
+    <t>Nike Men's Downshifter 9 Running Shoe</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Downshifter-Sneaker-Black-White/dp/B07H81Q987/ref=sr_1_54?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-54</t>
+  </si>
+  <si>
+    <t>107
+.</t>
+  </si>
+  <si>
+    <t>Nike Men's Air Jordan 6 Retro Electric Green Basketball Shoes (11.5)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Jordan-Retro-Electric-Green/dp/B096RDX6B8/ref=sr_1_55?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-55</t>
+  </si>
+  <si>
+    <t>SKIPPY SUPER CHUNK Extra Crunchy Peanut Butter, 64 Ounce</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Skippy-Super-Chunk-Peanut-Butter/dp/B07J191WP2/ref=sr_1_9?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t>PBfit All-Natural Peanut Butter Powder Spread From Real Roasted Pressed Peanuts, 8g of Protein, 30 Oz</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/PBfit-All-Natural-Powdered-Roasted-Pressed/dp/B01KKEECLS/ref=sr_1_10?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>Jif to Go Peanut Butter 1.5 Oz. 8/Box (Pack of 2)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Jif-Peanut-Butter-1-5-Pack/dp/B086GDLD1C/ref=sr_1_11?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>Skippy Creamy Peanut Butter, 64 Ounce</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Skippy-Peanut-Butter-Creamy-64/dp/B01MSK6YV6/ref=sr_1_12?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-12</t>
+  </si>
+  <si>
+    <t>Santa Cruz Organic Creamy Light Roasted Peanut Butter, 16 Ounces</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Santa-Cruz-Organic-Peanut-Roasted/dp/B06XHZ5MXM/ref=sr_1_13?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>Teddie Smooth Old Fashioned All Natural Peanut Butter-16 Ounce Jar</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Teddie-Fashioned-Natural-Peanut-Butter-16/dp/B001RO6Z3O/ref=sr_1_14?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-14</t>
+  </si>
+  <si>
+    <t>Jif Natural Creamy Peanut Butter Spread, 28 Ounces, Contains 90% Peanuts</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Jif-Creamy-Omega-3-Peanut-Butter/dp/B004HGQLR4/ref=sr_1_15?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-15</t>
+  </si>
+  <si>
+    <t>SKIPPY Creamy Peanut Butter Individual Squeeze Packs, 1.15 Ounce (64 Pouches)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SKIPPY-Creamy-Individual-Squeeze-Pouches/dp/B08BXPN4V4/ref=sr_1_16?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>37
+.</t>
+  </si>
+  <si>
+    <t>Teddie All Natural Peanut Butter, Smooth, 16-Ounce Jar (Pack of 4)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Teddie-Natural-Peanut-Butter-16-Ounce/dp/B006045OJ2/ref=sr_1_17?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-17</t>
+  </si>
+  <si>
+    <t>Jif Creamy Peanut Butter, 2 16-ounce Jars, Natural Delicious Flavor, Packed with Healthy Proteins for Kids and Adults, With Erbies Spreader Spatula</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/16-ounce-Delicious-Proteins-Erbies-Spreader/dp/B08SY8YLH1/ref=sr_1_18?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-18</t>
+  </si>
+  <si>
+    <t>SKIPPY Squeeze Creamy Peanut Butter, 6 Ounce (Pack of 6)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SKIPPY-Squeeze-Creamy-Peanut-Butter/dp/B089PJ26DT/ref=sr_1_19?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-19</t>
+  </si>
+  <si>
+    <t>SKIPPY Creamy Peanut Butter, 16.3 Ounce (Pack of 8)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Skippy-Creamy-Peanut-Butter-16-3/dp/B07Y944JQR/ref=sr_1_20?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-20</t>
+  </si>
+  <si>
+    <t>Jif Creamy Peanut Butter, 40 Ounces (Pack of 2), 7g (7% DV) of Protein Per Serving, Smooth, Creamy Texture, No Stir Peanut Butter</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Jif-Creamy-Peanut-Butter-Ounce/dp/B00061ETX2/ref=sr_1_21?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>SKIPPY Creamy Peanut Butter, 5 Pound</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Skippy-Creamy-Peanut-Butter-Pound/dp/B00LPE5EZQ/ref=sr_1_22?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-22</t>
+  </si>
+  <si>
+    <t>Jif No Added Sugar Creamy Peanut Butter Spread, 33.5 Ounces (Pack of 8), Smooth, Creamy Texture, No Stir Peanut Butter Spread</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Jif-Creamy-Peanut-Butter-Texture/dp/B08B4LQCPT/ref=sr_1_23?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-23</t>
+  </si>
+  <si>
+    <t>Skippy Peanut Butter, Creamy, 16.3 Oz, (Pack of 2)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Skippy-Creamy-Peanut-Butter-16-3/dp/B00VLLUAEI/ref=sr_1_24?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-24</t>
+  </si>
+  <si>
+    <t>14
+.</t>
+  </si>
+  <si>
+    <t>SKIPPY Natural Peanut Butter Spread, Creamy, 7 g protein per serving, 40 oz.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Skippy-Natural-Creamy-Peanut-Butter/dp/B003ZWI61U/ref=sr_1_25?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-25</t>
+  </si>
+  <si>
+    <t>Jif Natural Creamy Peanut Butter Spread, 16 Ounces (Pack of 12), Contains 90% Peanuts</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Jif-Natural-Creamy-Peanut-Butter/dp/B07MBR49F6/ref=sr_1_29?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-29</t>
+  </si>
+  <si>
+    <t>Jif Creamy Peanut Butter, 28 Ounces</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Jif-Creamy-Peanut-Butter-28/dp/B000R30LD6/ref=sr_1_30?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-30</t>
+  </si>
+  <si>
+    <t>Teddie Peanut Butter, Peanut Butter, 16 Ounce</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Teddie-Chunky-Fashioned-Natural-Peanut/dp/B0054Y1U74/ref=sr_1_31?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-31</t>
+  </si>
+  <si>
+    <t>Justins, Peanut Butter Spread Classic, 28 Ounce</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Justins-Butter-PNUT-Classic-Pack/dp/B07BJD3LB1/ref=sr_1_32?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-32</t>
+  </si>
+  <si>
+    <t>Skippy Peanut Butter, Creamy, 16.3 oz</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Skippy-Creamy-Peanut-Butter-Ounce/dp/B0055QCGWE/ref=sr_1_33?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-33</t>
+  </si>
+  <si>
+    <t>Crazy Richard Peanut Butter, Creamy, 16 oz</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Crazy-Richard-Peanut-Butter-Creamy/dp/B01IRA6DZU/ref=sr_1_34?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-34</t>
+  </si>
+  <si>
+    <t>Jif Creamy Peanut Butter, 40 Ounces</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Jif-Peanut-Butter-Creamy-40/dp/B000R2Z2S6/ref=sr_1_35?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-35</t>
+  </si>
+  <si>
+    <t>Santa Cruz Organic Creamy Light Roasted, Peanut Butter, 16 Oz</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Santa-Cruz-Organic-Roasted-Creamy/dp/B00S7JFK42/ref=sr_1_36?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-36</t>
+  </si>
+  <si>
+    <t>11
+.</t>
+  </si>
+  <si>
+    <t>Adams Food, Peanut Butter Crunchy Salt Organic, 16 Ounce</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Adams-Food-Peanut-Crunchy-Organic/dp/B078157FFD/ref=sr_1_37?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-37</t>
+  </si>
+  <si>
+    <t>Jif: Creamy Family Size Peanut Butter, 4 lb by Jif</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Jif-Creamy-Family-Peanut-Butter/dp/B01LZV370H/ref=sr_1_38?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-38</t>
+  </si>
+  <si>
+    <t>Jif Creamy Peanut Butter (48 oz., 2 pk.) ES</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Jif-Creamy-Peanut-Butter-pk/dp/B07CYV1F47/ref=sr_1_39?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-39</t>
+  </si>
+  <si>
+    <t>Earth Balance Coconut Peanut Butter Creamy (2x16oz)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Earth-Balance-Coconut-Peanut-Butter/dp/B007Q3P1GC/ref=sr_1_40_mod_primary_new?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-40</t>
+  </si>
+  <si>
+    <t>19
+.</t>
+  </si>
+  <si>
+    <t>Justin's Nut Butter Honey Peanut Butter, 28 Ounce (Pack of 1)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Justins-Butter-Ingredients-Gluten-free-Responsibly/dp/B07DF1SJCD/ref=sr_1_41?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-41</t>
+  </si>
+  <si>
+    <t>Crazy Richard Peanut Butter, Crunchy, 16 oz</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Crazy-Richards-Natural-Chunky-Peanut/dp/B00E3X1LUI/ref=sr_1_42?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-42</t>
+  </si>
+  <si>
+    <t>Santa Cruz Organic Crunchy Dark Roasted Peanut Butter, 16 Ounces</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Santa-Cruz-Organics-Crunchy-Roasted/dp/B0046HNS8Y/ref=sr_1_43?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-43</t>
+  </si>
+  <si>
+    <t>PBfit All-Natural Organic Peanut Butter Powder, Powdered Peanut Spread from Real Roasted Pressed Peanuts, 8g of Protein (30 oz.)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/PBfit-All-Natural-Organic-Roasted-Ingredients/dp/B01FYXCQ1S/ref=sr_1_44?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-44</t>
+  </si>
+  <si>
+    <t>16
+.</t>
+  </si>
+  <si>
+    <t>Once Again Organic, Creamy Peanut Butter - Salt Free, Unsweetened - 16 oz Jar</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Once-Again-Organic-Smooth-Butter/dp/B0046HNRPS/ref=sr_1_45?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-45</t>
+  </si>
+  <si>
+    <t>Jif Natural Creamy Peanut Butter Spread, 40 Ounces, Contains 90% Peanuts</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Jif-Creamy-Peanut-Butter-spread/dp/B01IF0GFQO/ref=sr_1_46?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-46</t>
+  </si>
+  <si>
+    <t>Peanut Butter &amp; Co. Smooth Operator Peanut Butter, Non-GMO Project Verified, Gluten Free, Vegan, 16 Ounce (Pack of 6)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Peanut-Butter-Co-Operator-Verified/dp/B001GQ3E28/ref=sr_1_47?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-47</t>
+  </si>
+  <si>
+    <t>Jif to Go Peanut Butter 1.5 Oz. 8/Box (Pack of 4)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Jif-Peanut-Butter-1-5-Pack/dp/B0875PV3FV/ref=sr_1_48?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-48</t>
+  </si>
+  <si>
+    <t>365 by Whole Foods Market, Peanut Butter Sweetened Smooth Organic, 16 Ounce</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/365-Everyday-Value-Organic-Creamy/dp/B074H5SSHX/ref=sr_1_49?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-49</t>
+  </si>
+  <si>
+    <t>365 by Whole Foods Market, Peanut Butter Crunchy With Salt, 16 Ounce</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/365-Everyday-Value-Peanut-Crunchy/dp/B074H65ZW8/ref=sr_1_50?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-50</t>
+  </si>
+  <si>
+    <t>All Natural Peanut Butter &amp; Co. Smooth Operator Net Wt. 16 Oz (1LB) 454g</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Natural-Peanut-Butter-Co-Operator/dp/B001I2PMSO/ref=sr_1_51_mod_primary_new?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-51</t>
+  </si>
+  <si>
+    <t>9
+.</t>
+  </si>
+  <si>
+    <t>Skippy Peanut Butter, Chunky, 28 oz</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Skippy-Peanut-Butter-Chunky-28/dp/B00PYWRQLU/ref=sr_1_52?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-52</t>
+  </si>
+  <si>
+    <t>Goat Milk Toddler Formula – Growth Spurt Powdered Goat's Milk Toddler Formula – Lactoferrin, 2'-FL HMO, Prebiotics, Probiotics, Iron, DHA &amp; ARA, Immune Support, Non GMO Infant Baby Transition Weaning</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Goat-Milk-Toddler-Formula-Lactoferrin/dp/B093FWPTPL/ref=sr_1_8?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>PetAg Esbilac Goat's Milk Powder Puppy Milk Replacer - Milk Formula for Puppies with Sensitive Digestive Systems</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/PetAg-Goats-Milk-Esbilac-Powder/dp/B002JHR0PK/ref=sr_1_9?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t>Meyenberg, Goat Milk Whole Powdered Can, 12 OZ (Pack of 12)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Meyenberg-Goat-Milk-Whole-Powdered/dp/B004AHE1CC/ref=sr_1_10?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>160
+.</t>
+  </si>
+  <si>
+    <t>PetAg Goat's Milk Esbilac Powder - 12 Ounce (2 Pack)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/PetAg-Goats-Milk-Esbilac-Powder/dp/B01LBA6MCC/ref=sr_1_11?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>Growth Spurt Goat Milk Toddler Formula – (12 Pack) Powdered Goat's Milk Toddler Formula – Lactoferrin, 2'-FL HMO, Prebiotics, Probiotics, Iron, DHA &amp; ARA, Immune Support, Non GMO Infant Baby</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Goat-Milk-Formula-Lactoferrin-Prebiotics/dp/B086J9L3HX/ref=sr_1_12?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-12</t>
+  </si>
+  <si>
+    <t>Raw Paws Frozen Raw &amp; Powdered Goat Milk for Dogs &amp; Cats - Made in USA - Milk Replacer for Puppies &amp; Kittens - Goats Milk Supplement for Pets - Pet Food Topper &amp; Enhancer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Raw-Paws-Whole-Goat-Powder/dp/B07NXN39B4/ref=sr_1_13?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>Meyenberg Whole Powdered Goat Milk, 12 Ounce (6 Pack)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Meyenberg-Whole-Powdered-Goat-Ounce/dp/B0083P1MBA/ref=sr_1_14?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-14</t>
+  </si>
+  <si>
+    <t>85
+.</t>
+  </si>
+  <si>
+    <t>Dionis - Goat Milk Skincare Unscented Lotion (8.5 oz) - Made in the USA - Cruelty-free and Paraben-free</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Dionis-Original-Skincare-Unscented-Lotion/dp/B008MOXD3C/ref=sr_1_15?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-15</t>
+  </si>
+  <si>
+    <t>13
+.</t>
+  </si>
+  <si>
+    <t>Kabrita Goat Milk Toddler Formula, 14 Ounce (Pack of 1)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Kabrita-Non-GMO-Goat-Toddler-Formula/dp/B00MJ4ZC62/ref=sr_1_16?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>Kabrita Goat Milk Toddler Formula, 28 Oz</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Kabrita-Non-GMO-Goat-Toddler-Formula/dp/B00MJ4ZU32/ref=sr_1_17?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-17</t>
+  </si>
+  <si>
+    <t>Australian Botanical Soap, Goat's Milk &amp; Soya Bean Oil Pure Plant Oil Soap, 6.8 oz. 193g Bars - 8 Count</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Australian-Botanical-Soap-Goats-Natural/dp/B07M68CHV9/ref=sr_1_18?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-18</t>
+  </si>
+  <si>
+    <t>23
+.</t>
+  </si>
+  <si>
+    <t>Meyenberg - Meyenberg Goat Milk (Powdered), 12 oz powder (Pack of 2)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Meyenberg-Goat-Milk-Powdered-powder/dp/B0083JVVUI/ref=sr_1_19?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-19</t>
+  </si>
+  <si>
+    <t>35
+.</t>
+  </si>
+  <si>
+    <t>Nature By Canus Creamy Body Lotion, Original, 11.8 Oz, With Smoothing Fresh Canadian Goat Milk, Vitamin A, B3, Potassium, Zinc, and Selenium</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nature-Canus-Creamy-Canadian-Original/dp/B00JIKZR1A/ref=sr_1_20?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-20</t>
+  </si>
+  <si>
+    <t>12
+.</t>
+  </si>
+  <si>
+    <t>Naked Goat - 100% Pasture Fed Goat Whey Protein Powder from Small-Herd Wisconsin Dairies, 2lb Bulk, GMO Free, Soy Free. Easy to Digest - All Natural - 23 Grams of Protein - 30 Servings</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/NAKED-GOAT-Small-Herd-Wisconsin-Servings/dp/B00NBJ377K/ref=sr_1_21?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>Goat Whey Protein Powder Concentrate - Unflavored &amp; Undenatured - Grass Fed in USA - Good Source of BCAA - No Hormones or Antibiotics - 100% Pure, Gluten Free, Non GMO, Kosher - 1 lb</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Goat-Whey-Protein-Powder-Concentrate/dp/B08C7B9Y8R/ref=sr_1_22?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-22</t>
+  </si>
+  <si>
+    <t>Non-Fat Goat Milk by Mt. Capra Since 1928 | An Easy to Digest, Fat-Free, Non-GMO Goat Milk Powder from Grass Fed Pastured Goats - 1 pound</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Capra-Milk-Powder-Non-Fat-non-GMO/dp/B000YQBSXS/ref=sr_1_23?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-23</t>
+  </si>
+  <si>
+    <t>Dionis Goat Milk Body Lotion and Hand Cream 2 Piece Gift Set - Love</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Dionis-Goat-Lotion-Cream-Piece/dp/B01M8Q38EV/ref=sr_1_24?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-24</t>
+  </si>
+  <si>
+    <t>MT. CAPRA SINCE 1928 | Goat Milk Lactose Powder, Pure Milk Sugar from Goats, Boost Beneficial Gut Bacteria Lactobacillus Acidophilus in GI-Tract - 13.8 Ounces</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/MT-CAPRA-SINCE-1928-Lactobacillus/dp/B016ATC1UQ/ref=sr_1_28?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-28</t>
+  </si>
+  <si>
+    <t>Meyenberg Evaporated Goat Milk (3 Pack) 12 oz Cans by Meyenberg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Meyenberg-Evaporated-Goat-Milk-Pack/dp/B00U9VZ4LA/ref=sr_1_29?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-29</t>
+  </si>
+  <si>
+    <t>teraswhey Goat Whey Protein, Plain 12 oz</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/teraswhey-Goat-Whey-Protein-Plain/dp/B008QMWXHM/ref=sr_1_30?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-30</t>
+  </si>
+  <si>
+    <t>Meyenberg Goat Milk, Whole Powdered Goat Milk, Vitamin D, 12 oz (340 g)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Meyenberg-Goat-Whole-Powdered-Vitamin/dp/B01M11ZOTO/ref=sr_1_31?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-31</t>
+  </si>
+  <si>
+    <t>Hoosier Hill Farm All American Dairy Whole Milk Powder 1 lb</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hoosier-Hill-Farm-American-Powder/dp/B0099XI58S/ref=sr_1_32?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-32</t>
+  </si>
+  <si>
+    <t>Silk Shelf-Stable Almond Milk, Unsweetened Vanilla, Dairy-Free, Vegan, Non-GMO Project Verified, 1 Quart (Pack of 6)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Silk-Unsweetened-Flavored-Non-Dairy-Dairy-free/dp/B00PGXQ68Q/ref=sr_1_33?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-33</t>
+  </si>
+  <si>
+    <t>Maple Hill Shelf Stable Whole White Milk 100% Grass Fed, Organic, Non-GMO: 12 Pack 8 Fl Oz Aseptic Milk Boxes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Maple-Hill-Grass-Fed-Organic-12pack/dp/B07WWG1QL1/ref=sr_1_34?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-34</t>
+  </si>
+  <si>
+    <t>NIDO Fortificada Dry Whole Milk Powdered Drink Mix</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/NESTLE-NIDO-Fortificada-Ounce-Canister/dp/B00FRFRZF6/ref=sr_1_35?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-35</t>
+  </si>
+  <si>
+    <t>Meyenberg Powdered Instant Goat Milk (12x12/12 Oz)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Meyenberg-Powdered-Instant-Goat-12x12/dp/B0082AV130/ref=sr_1_36?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-36</t>
+  </si>
+  <si>
+    <t>Rawel Premium Goat's Milk Protein A+ (9.87oz) / High in Protein to Support Growth / Supports Gut Health and Digestion / Whey Protein Isolate(WPI)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Rawel-Premium-Goats-Protein-9-87oz/dp/B08VNWB9MD/ref=sr_1_37?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-37</t>
+  </si>
+  <si>
+    <t>Meyenberg Evaporated Goat Milk, 12 oz</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Meyenberg-Evaporated-Goat-Milk-12/dp/B0005XODQY/ref=sr_1_38?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-38</t>
+  </si>
+  <si>
+    <t>Hoosier Hill Farm All American Whole Milk Powder, 2lbs (32oz) | Made in USA, Batch tested gluten-free, Hormone-Free, No additives</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hoosier-Hill-American-Powder-tested/dp/B08769TPSY/ref=sr_1_39?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-39</t>
+  </si>
+  <si>
+    <t>GOAT GHEE A2/A2 BY GOLD NUGGET GHEE, FULL-YEAR/PASTURE-RAISED, GRASS-FED, KETO &amp; PALEO 8oz</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/NUGGET-PASTURE-RAISED-GRASS-FED-PALEO/dp/B07B29DSXL/ref=sr_1_40?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-40</t>
+  </si>
+  <si>
+    <t>MANOA CHOCOLATE Goat Milk Chocolate Bar, 2 OZ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Manoa-Goat-Milk-69/dp/B07BJ9S4L7/ref=sr_1_41?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-41</t>
+  </si>
+  <si>
+    <t>Aadvik Goat Milk Powder | Freeze Dried | Pure and Natural I 7.02 Oz</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Aadvik-Powder-Freeze-Dried-Natural/dp/B07PQ8JJBS/ref=sr_1_42?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-42</t>
+  </si>
+  <si>
+    <t>Meyenberg Whole Powdered Goat Milk, Vitamin D, 12 Ounce (Pack of 3)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Meyenberg-Whole-Powdered-Vitamin-Ounce/dp/B001E5DZTS/ref=sr_1_43?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-43</t>
+  </si>
+  <si>
+    <t>Meyenberg Goat Milk Liq Evaprtd</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Meyenberg-Goat-Milk-Liq-Evaprtd/dp/B005GTUTO2/ref=sr_1_44?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-44</t>
+  </si>
+  <si>
+    <t>HYE FOODS Goat Milk Powder I Whole Milk Powder | 17.60 Oz (500gms)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/FOODS-Powder-Whole-17-60-500gms/dp/B08123GQQR/ref=sr_1_45?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-45</t>
+  </si>
+  <si>
+    <t>Pompeian Robust Extra Virgin Olive Oil, First Cold Pressed, Full-Bodied Flavor, Perfect for Salad Dressings &amp; Marinades, 32 FL. OZ.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Pompeian-Pressed-Full-Bodied-Dressings-Marinades/dp/B0004MZVEE/ref=sr_1_46?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-46</t>
+  </si>
+  <si>
+    <t>Meyenberg Evaporated Goat Milk -- 12 fl oz (Pack of 2)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Meyenberg-Evaporated-Goat-Milk-Pack/dp/B00DEEXZLU/ref=sr_1_47?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-47</t>
+  </si>
+  <si>
+    <t>Hoosier Hill Farm Heavy Cream Powder Jar, 1 Pound</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Hoosier-Hill-Farm-Heavy-Powder/dp/B00OCV3QRW/ref=sr_1_48?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-48</t>
+  </si>
+  <si>
+    <t>Nature by Canus Bar Soap, Shea Buttr, 5 Oz, With Fresh Canadian Goat Milk, Vitamin A, B3, Potassium, Zinc, and Selenium (89824)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nature-Canus-Vegetal-Canadian-Butter/dp/B00K6BFG6Q/ref=sr_1_49?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-49</t>
+  </si>
+  <si>
+    <t>Mt. Capra Goat Whey Protein | Grass-Fed Undenatured Whey Protein Powder from Pastured Goats, High in Branch Chain Amino Acids, Natural Vanilla - 1 Pound</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Capra-Undenatured-Concentrate-All-Natural-Glutathione/dp/B016P46EFE/ref=sr_1_50?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-50</t>
+  </si>
+  <si>
+    <t>Meyenberg Whole Powdered Goat Milk, Vitamin D, 12 Ounce</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Meyenberg-Whole-Powdered-Vitamin-Ounce/dp/B01B7KYHNC/ref=sr_1_51?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-51</t>
+  </si>
+  <si>
+    <t>20
+.</t>
+  </si>
+  <si>
+    <t>DALIX Flat Billed Trucker Hat Mesh Back S M L Adjustable Cap Solid Two Toned Snapback</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Flat-Billed-Trucker-Mesh-Red-White/dp/B00IE1MK3W/ref=sr_1_2?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-2</t>
+  </si>
+  <si>
+    <t>8
+.</t>
+  </si>
+  <si>
+    <t>Red White Long Beanie - Waldo Costume</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Red-White-Long-Beanie-Costume/dp/B07G2S4PGC/ref=sr_1_3?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>Red White Pom Pom Cuff Knit Beanie Hat</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Waldo-Costume-White-Cuff-Beanie/dp/B0149GU5HI/ref=sr_1_4?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>SAJUZEN Two Tone Fedora Hats for Women Wide Brim Felt Mens Fedora Hats</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAJUZEN-Tone-Fedora-Women-White/dp/B08FC95M6B/ref=sr_1_5?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>24
+.</t>
+  </si>
+  <si>
+    <t>SVEN HOME Soft Slouchy Beanies Knit Warm Winter Unisex Cap Thick Women's Men Hat</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Sven-Home-Slouchy-White-Red/dp/B074SHRPSY/ref=sr_1_6?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>Flexfit Men's Trucker Mesh Multicam</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Flexfit-Mens-Two-Tone-Stretch-White/dp/B07D3NXHR6/ref=sr_1_7?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-7</t>
+  </si>
+  <si>
+    <t>SSLR Big Kids Halloween Red White Beanie Hat</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SSLR-Halloween-White-Waldo-Beanie/dp/B07KLTYFGH/ref=sr_1_8?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>Geyoga 3 Pieces Sublimation Trucker Hat Sublimation Blank Mesh Hat Adjustable Sublimation Blank Polyester Mesh Cap</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Geyoga-Sublimation-Trucker-Adjustable-Polyester/dp/B09334HK24/ref=sr_1_9?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t>18
+.</t>
+  </si>
+  <si>
+    <t>adidas Originals Beacon 4.0 Adjustable Snapback Cap, One Size</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/adidas-Originals-Beacon-Adjustable-Snapback/dp/B09HVCWLKY/ref=sr_1_10?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>29
+.</t>
+  </si>
+  <si>
+    <t>SSLR Adult Halloween Red White Christmas Beanie Hat</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SSLR-Adult-White-Christmas-Beanie/dp/B07HT1B6Q4/ref=sr_1_11?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>Under Armour Men's Blank Blitzing Cap</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Under-Armour-Blank-Blitzing-X-Large/dp/B07J1YR6P7/ref=sr_1_12?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-12</t>
+  </si>
+  <si>
+    <t>21
+.</t>
+  </si>
+  <si>
+    <t>Armycrew Oversized XXL 5 Panel Flat Bill Foam Trucker Mesh Back Baseball Cap</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Armycrew-Oversized-Panel-Trucker-Baseball/dp/B08MTCL7SS/ref=sr_1_13?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>DALIX Two Tone Trucker Hat Summer Mesh Cap with Adjustable Snapback Strap</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/DALIX-Blank-Summer-White-Trucker/dp/B00FD71HSO/ref=sr_1_14?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-14</t>
+  </si>
+  <si>
+    <t>Armycrew Red White Stripe Long Cuff Beanie</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Armycrew-White-Stripe-Long-Beanie/dp/B07J2418XV/ref=sr_1_15?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-15</t>
+  </si>
+  <si>
+    <t>Quanhaigou Skull Skeleton Baseball Cap, Men Solid Flat Bill Adjustable Snapback Hats Unisex</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Quanhaigou-Snapback-Graffiti-Baseball-Adjustable/dp/B072N7JR1D/ref=sr_1_16?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>15
+.</t>
+  </si>
+  <si>
+    <t>DALIX Youth Mesh Trucker Cap - Adjustable Hat (S, M Sizes)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/DALIX-Kids-Trucker-Youth-White/dp/B008M10RMA/ref=sr_1_17?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-17</t>
+  </si>
+  <si>
+    <t>L2K Classics Plain Trucker Mesh Cap Baseball Cap - Mens Hats Trucker Hats for Men</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/L2K-Classics-Plain-Trucker-Baseball/dp/B09647X9V7/ref=sr_1_18?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-18</t>
+  </si>
+  <si>
+    <t>RVCA Men's Adjustable Snapback Mesh Trucker Hat</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/RVCA-Mens-Trucker-White-Size/dp/B07XPFCY1C/ref=sr_1_19?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-19</t>
+  </si>
+  <si>
+    <t>26
+.</t>
+  </si>
+  <si>
+    <t>QHQ 54inch Super Long Christmas Santa Hat Classic Red and White Chistmas Cap for Adults(Adults,Christmas hat)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/QHQ-54inch-Christmas-Classic-Chistmas/dp/B09BVCNXHH/ref=sr_1_20?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-20</t>
+  </si>
+  <si>
+    <t>URATOT Halloween Costume Red White Pom Pom Beanie Hat Christmas Cuff Knit Hat</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/URATOT-Halloween-Costume-Beanie-Christmas/dp/B07W8ZZ46P/ref=sr_1_21?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>Oakley Men's Tincan Cap</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Oakley-Tincan-White-Small-Medium/dp/B01MR6LRRW/ref=sr_1_22?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-22</t>
+  </si>
+  <si>
+    <t>Grace Folly Trucker Hat for Men &amp; Women. Snapback Mesh Caps</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Grace-Folly-Trucker-Women-Snapback/dp/B07JGDDLCN/ref=sr_1_23?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-23</t>
+  </si>
+  <si>
+    <t>Champion - Ribbed Knit Cap - CS4003</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Champion-Ribbed-Knit-CS4003-Scarlet/dp/B07WHVV2HP/ref=sr_1_24?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-24</t>
+  </si>
+  <si>
+    <t>Nike Men's 518015-010 Tech Swoosh Cap</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/NIKE-102699-658-Team-Campus-Cap-red/dp/B00HW1IPI4/ref=sr_1_28?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-28</t>
+  </si>
+  <si>
+    <t>28
+.</t>
+  </si>
+  <si>
+    <t>SAJUZEN Womens &amp; Mens Fedora Hats, Two Tone Wide Brim Fedora Hats for Women Men</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SAJUZEN-Womens-Fedora-Women-White-red/dp/B08CD8NGYT/ref=sr_1_29?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-29</t>
+  </si>
+  <si>
+    <t>Kafeimali Baby Christmas Elf Long Tail Crochet Beanie Knit Hat Stocking Caps</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Kafeimali-Christmas-Crochet-Beanie-Stocking/dp/B01LYZSLWN/ref=sr_1_30?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-30</t>
+  </si>
+  <si>
+    <t>Red Dirt Hat Company Buffalo Skull Adjustable Hat</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Red-Dirt-Hat-Company-Adjustable/dp/B07YSVH6D9/ref=sr_1_31?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-31</t>
+  </si>
+  <si>
+    <t>30
+.</t>
+  </si>
+  <si>
+    <t>Armycrew Red White Stripe Short Skull Beanie</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Armycrew-White-Stripe-Short-Beanie/dp/B07J23GKD4/ref=sr_1_32?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-32</t>
+  </si>
+  <si>
+    <t>e4Hats.com Smile Face Embroidered Foam Mesh Back Cap</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/E4hats-Smiley-Face-Embroidered-Foam/dp/B00KTG3Y9Y/ref=sr_1_33?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-33</t>
+  </si>
+  <si>
+    <t>CC Football Basketball Team Colors Pom Winter Chunky Stretchy Knit Beanie Hat</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Football-Basketball-Colors-Winter-Stretchy/dp/B07YX51H4V/ref=sr_1_34?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-34</t>
+  </si>
+  <si>
+    <t>17
+.</t>
+  </si>
+  <si>
+    <t>Nike Women's Unisex Legacy91 Tech Hat</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nike-Unisex-Legacy91-University-Anthracite/dp/B07S4KNDFZ/ref=sr_1_35?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-35</t>
+  </si>
+  <si>
+    <t>Nautica Men's Classic Logo Adjustable Baseball Cap Hat</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nautica-Mens-Twill-6-Panel-Deck/dp/B009117NJ0/ref=sr_1_36?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-36</t>
+  </si>
+  <si>
+    <t>Ultrafun 10 Pack Unisex Sublimation Blank Mesh Baseball Cap Polyester Mesh Trucker Hat</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Ultrafun-Sublimation-Baseball-Polyester-10Pack-Red/dp/B09DCFS41Q/ref=sr_1_37?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-37</t>
+  </si>
+  <si>
+    <t>32
+.</t>
+  </si>
+  <si>
+    <t>KUJUHA Fedora Hats for Women Men, Wide Brim Fedora Hat with Felt Band</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/XINBONG-Womens-Fedora-Buckle-Panama/dp/B08CKC1RT7/ref=sr_1_38?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-38</t>
+  </si>
+  <si>
+    <t>REVKI Wide Brim Fedora Hats for Women Dress Hats for Men Two Tone Panama Hat with Belt Buckle</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/REVKI-Fedora-Women-Panama-Buckle/dp/B0919H5F55/ref=sr_1_39?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-39</t>
+  </si>
+  <si>
+    <t>State Cashmere Rabbit Fur Removable Pom-Pom Hat 100% Pure Cashmere Cuffed Beanie Ultimately Soft and Warm</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/State-Cashmere-Womens-100-Beanie/dp/B07H7WVTKX/ref=sr_1_40?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-40</t>
+  </si>
+  <si>
+    <t>Black Clover Iron Flex Cap</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Black-Clover-Lucky-Perfect-Heather/dp/B07KV47WQV/ref=sr_1_41?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-41</t>
+  </si>
+  <si>
+    <t>BAGA Compatible with Tesla Logo Embroidered Adjustable Baseball Caps for Men and Women Hat Travel Cap Racing Motor Hat (Red White)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/BAGA-Compatible-Embroidered-Adjustable-Baseball/dp/B09FY9FKZW/ref=sr_1_42?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-42</t>
+  </si>
+  <si>
+    <t>Ruconla Fiber Optic Cap LED hat with 7 Colors Luminous Glowing Hip hop Baseball Hats USB Charging Light up caps Even Party led Christmas Cap for Event Holiday White</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Ruconla-Luminous-Baseball-Charging-Christmas/dp/B081RGQYMC/ref=sr_1_43?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-43</t>
+  </si>
+  <si>
+    <t>SATINIOR Women Winter Knit Hat Winter Brim Beanie Hats for Women Slouchy Beanie Cap with Visor Warm Newsboy Skull Cap</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SATINIOR-Winter-Beanie-Slouchy-Newsboy/dp/B09BHXGQW1/ref=sr_1_44?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-44</t>
+  </si>
+  <si>
+    <t>22
+.</t>
+  </si>
+  <si>
+    <t>ARIAT Men's RWB Shield Logo Flexfit110 Snapback Cap</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ARIAT-Shield-Flexfit110-Snapback-Heather/dp/B07NXVCB6K/ref=sr_1_45?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-45</t>
+  </si>
+  <si>
+    <t>CHOK.LIDS Lumberjack Plaid Winter Trapper Unisex Premium Extra Strength Ear Flap Chin Strap Windproof Outdoor PT201</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/CHOK-LIDS-Trapper-Premium-Strength-Windproof/dp/B08KBRDMHV/ref=sr_1_46?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-46</t>
+  </si>
+  <si>
+    <t>REDESS Women Winter Pom Pom Beanie Hat with Warm Fleece Lined</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/REDESS-Winter-Beanie-Fleece-Slouchy/dp/B076S5KD6N/ref=sr_1_47?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-47</t>
+  </si>
+  <si>
+    <t>Carhartt Men's 105168 Knit Pom-Pom Cuffed Logo Beanie</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Carhartt-Mens-Knit-Cuffed-Beanie/dp/B092DL5LKB/ref=sr_1_48?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-48</t>
+  </si>
+  <si>
+    <t>Champion Ameritage Dad Adjustable Cap</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Champion-Mens-Ameritage-Adjustable-White/dp/B07995MJK9/ref=sr_1_49?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-49</t>
+  </si>
+  <si>
+    <t>RED Dirt Anderson Bean Patch Cap Heather</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Dirt-Anderson-Patch-Heather-Charcoal/dp/B093M7PM7Y/ref=sr_1_50?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-50</t>
+  </si>
+  <si>
+    <t>PAGE ONE Womens Winter Ribbed Beanie Crossed Cap Chunky Cable Knit Pompom Soft Warm Hat</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/PAGE-ONE-Womens-Crossed-Comfortable/dp/B07VKLQPWK/ref=sr_1_51?crid=1QTFI8KM3GTYB&amp;keywords=red+white+hat&amp;qid=1642023930&amp;sprefix=red+white+hat%2Caps%2C317&amp;sr=8-51</t>
+  </si>
+  <si>
+    <t>KOTIONOK Baseball Bat 28 inch - Self Defense Black Baseball Bat - Aluminum Baseball Bat Home Defense - Metal Baseball Bats</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/KOTIONOK-Baseball-Bat-inch-Self-Defense/dp/B08G44FY24/ref=sr_1_6?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>Louisville Slugger Ash Wood Tee Ball Baseball Bat</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Louisville-Slugger-Wood-Ball-Baseball/dp/B01K8EPPPC/ref=sr_1_7?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-7</t>
+  </si>
+  <si>
+    <t>Louisville Slugger 2021 BBCOR Meta (-3) Baseball Bat - 32"</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Louisville-Slugger-2021-BBCOR-Baseball/dp/B08LNTV3T5/ref=sr_1_8?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>349
+.</t>
+  </si>
+  <si>
+    <t>Rawlings Raptor USA Baseball Bat | -10 | 1 Pc. Aluminum | 2 1/4 Barrel</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Rawlings-2020-Raptor-Youth-Baseball/dp/B07TT7W832/ref=sr_1_9?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t>BARNETT Baseball bat BB-1-8/9 28" 29" 31" 32" Aluminium 6061</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/BARNETT-32-Baseball-Strong-Aluminium/dp/B001VC4TCG/ref=sr_1_10?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>DeMarini CF (-3) BBCOR Baseball Bat - 32"/29oz, Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/DeMarini-CF-BBCOR-Baseball-Bat/dp/B08MBH42PQ/ref=sr_1_11?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-11</t>
+  </si>
+  <si>
+    <t>399
+.</t>
+  </si>
+  <si>
+    <t>Rawlings Raptor T-Ball Bat | USA Baseball | -12 | 1 Pc. Aluminum | 2 1/4 Barrel</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Rawlings-2020-Raptor-Youth-Tball/dp/B07TWC5FQ1/ref=sr_1_12?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-12</t>
+  </si>
+  <si>
+    <t>TRUE TEMPER T2-10 l -8 l -5 USA Youth Baseball Bat, 2 5/8 in Barrel, Fuzed Hybrid Contruction, Half Sizes</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/True-2020-USA-Youth-BAT/dp/B08KGTZC1H/ref=sr_1_13?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-13</t>
   </si>
   <si>
     <t>200
 .</t>
   </si>
   <si>
-    <t>Nike Women's Court Lite 2 Tennis Shoe</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Sneaker-Metallic-Silver-White-Regular/dp/B07HG8N1LP/ref=sr_1_9?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-9</t>
-  </si>
-  <si>
-    <t>Nike Men's Air Monarch IV Cross Trainer</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/NIKE-Monarch-Cross-Trainer-Regular/dp/B004K4CIKC/ref=sr_1_10?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-10</t>
-  </si>
-  <si>
-    <t>74
-.</t>
-  </si>
-  <si>
-    <t>Nike Men's Air Max 2017 Running Shoes</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Mens-Running-Black-Black-Black/dp/B00E4Z0034/ref=sr_1_11?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-11</t>
-  </si>
-  <si>
-    <t>216
-.</t>
-  </si>
-  <si>
-    <t>Nike Air Max Torch 3 Men's Running Shoes</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Torch-Running-Shoes-Black/dp/B001CQ3CG0/ref=sr_1_12?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-12</t>
-  </si>
-  <si>
-    <t>100
-.</t>
-  </si>
-  <si>
-    <t>Nike Men's Flex Control TR3 Sneaker</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Control-Sneaker-Black-Anthracite-White-Regular/dp/B07FKCK4NG/ref=sr_1_13?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-13</t>
-  </si>
-  <si>
-    <t>104
-.</t>
-  </si>
-  <si>
-    <t>Nike Men's Training Sneaker</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Varsity-Compete-Training-Cj0813-003/dp/B07YKQ937Y/ref=sr_1_17?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-17</t>
-  </si>
-  <si>
-    <t>99
-.</t>
-  </si>
-  <si>
-    <t>Nike Men's Basketball Shoe</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Mens-Basketball-White-Black/dp/B08Q8QPZ1Y/ref=sr_1_18?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-18</t>
-  </si>
-  <si>
-    <t>194
-.</t>
-  </si>
-  <si>
-    <t>Nike Metcon Sport</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Metcon-Sport-Training-Shoes/dp/B07HDSGL9X/ref=sr_1_19?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-19</t>
-  </si>
-  <si>
-    <t>132
-.</t>
-  </si>
-  <si>
-    <t>Nike Men's Court Lite 2 Tennis Shoe</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/NIKE-Nike-Court-white-black/dp/B07HGB9VP4/ref=sr_1_20?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-20</t>
-  </si>
-  <si>
-    <t>87
-.</t>
-  </si>
-  <si>
-    <t>Nike Women's Zoom Winflo 6 Running Shoes</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Womens-Zoom-Winflo-Aq8228-002/dp/B07H99XX77/ref=sr_1_21?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-21</t>
-  </si>
-  <si>
-    <t>90
-.</t>
-  </si>
-  <si>
-    <t>Nike Men's Shoes Adapt BB 2.0 Tie-Dye BQ5397-100</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Adapt-Mens-Basketball-Bq5397-100/dp/B08FWCZB8X/ref=sr_1_22?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-22</t>
-  </si>
-  <si>
-    <t>571
-.</t>
-  </si>
-  <si>
-    <t>Nike Men's Fitness Shoes</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Mens-Free-Metcon-Black/dp/B07HDRTT87/ref=sr_1_23?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-23</t>
-  </si>
-  <si>
-    <t>89
-.</t>
-  </si>
-  <si>
-    <t>Nike Women's Tennis Shoes</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Womens-Sneaker-White-Black-Regular/dp/B07CY27L3B/ref=sr_1_24?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-24</t>
-  </si>
-  <si>
-    <t>Nike Men's Shoes Lebron 18 Low CV7562-100</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Shoes-Lebron-CV7562-100-Numeric_7_Point_5/dp/B09BC7CP3F/ref=sr_1_25?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-25</t>
-  </si>
-  <si>
-    <t>198
-.</t>
-  </si>
-  <si>
-    <t>Nike Men's Trail Running Shoes</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Quest-Running-Shoes-White-Iron/dp/B082R72Z11/ref=sr_1_26?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-26</t>
-  </si>
-  <si>
-    <t>Nike Women's Air Zoom Pegasus 36 Running Shoes</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Pegasus-Womens-Running-Black-Half/dp/B07H9886SL/ref=sr_1_27?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-27</t>
-  </si>
-  <si>
-    <t>NIKE Women's Basketball Shoe</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Women-Force-White-Size/dp/B000SBYEGW/ref=sr_1_28?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-28</t>
-  </si>
-  <si>
-    <t>137
-.</t>
-  </si>
-  <si>
-    <t>Nike Men's Gymnastics Shoes</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Reax-Sports-Shoes-White/dp/B084KSLLW4/ref=sr_1_32?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-32</t>
-  </si>
-  <si>
-    <t>Nike Women's Gymnastics Sneaker</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Womens-Blazer-Mid-77/dp/B088YQG81M/ref=sr_1_33?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-33</t>
-  </si>
-  <si>
-    <t>Nike Men's Revolution 5 Wide Running Shoe</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Revolution-Running-Anthracite-Regular/dp/B07NLV7NDZ/ref=sr_1_34?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-34</t>
-  </si>
-  <si>
-    <t>Nike Men’s Air Force 1 Low Sneaker</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/NIKE-Force-Trainers-488298-Sneakers/dp/B01408RQ9K/ref=sr_1_35?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-35</t>
-  </si>
-  <si>
-    <t>178
-.</t>
-  </si>
-  <si>
-    <t>Nike Mens Air Max 90 DD8555 300 St Patrick's 2021</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Mens-DD8555-Patricks-Numeric_9_Point_5/dp/B08YY1XF8P/ref=sr_1_36?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-36</t>
-  </si>
-  <si>
-    <t>299
-.</t>
-  </si>
-  <si>
-    <t>Nike Men's Air Zoom Pegasus 36 Running Shoes</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Pegasus-Running-Shoes-Gunsmoke/dp/B07H8J1QV9/ref=sr_1_37?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-37</t>
-  </si>
-  <si>
-    <t>129
-.</t>
-  </si>
-  <si>
-    <t>Nike mens Varsity Royal/White-volt-black</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Griffey-DJ5161-Varsity-Royal/dp/B095ZPCHSP/ref=sr_1_38?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-38</t>
-  </si>
-  <si>
-    <t>338
-.</t>
-  </si>
-  <si>
-    <t>Nike Alpha Huarache ELT 2 Low Mens Aj6873-004</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Alpha-Huarache-Aj6873-004-Black/dp/B081FL77DW/ref=sr_1_39?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-39</t>
-  </si>
-  <si>
-    <t>79
-.</t>
-  </si>
-  <si>
-    <t>Nike Womens Ashin Modern Fabric Low Top Lace Up Running Sneaker</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Modern-Womens-Running-Summit/dp/B075ZZC6Y6/ref=sr_1_40?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-40</t>
-  </si>
-  <si>
-    <t>Nike Lebron Witness 5 Mens Basketball Shoe Cq9380-101 Size 11 White/Black</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Lebron-Witness-Basketball-Cq9380-101/dp/B08NYK4FY5/ref=sr_1_41?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-41</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Alpha-Savage-Training-Shoes/dp/B07RGX3JSH/ref=sr_1_42?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-42</t>
-  </si>
-  <si>
-    <t>39
-.</t>
-  </si>
-  <si>
-    <t>Nike Adapt Bb 2.0 Mens Basketball Shoe Bq5397-101</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Adapt-Mens-Basketball-Bq5397-101/dp/B08N454MWB/ref=sr_1_43?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-43</t>
-  </si>
-  <si>
-    <t>339
-.</t>
-  </si>
-  <si>
-    <t>Nike Women's WMNS Revolution 5 Running Shoe</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Womens-Stroke-Running-Platinum/dp/B08PKCFXVM/ref=sr_1_44?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-44</t>
-  </si>
-  <si>
-    <t>Nike Metcon Sport Mens Training Shoes Aq7489-008 Size 11</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Metcon-Sport-Training-Aq7489-008/dp/B07TLNF451/ref=sr_1_45?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-45</t>
-  </si>
-  <si>
-    <t>139
-.</t>
-  </si>
-  <si>
-    <t>Nike Reposto Womens</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Reposto-Womens-Running-Cz5630-002/dp/B08BKKY6V8/ref=sr_1_46?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-46</t>
-  </si>
-  <si>
-    <t>Nike Women's Air Max 270 Running</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Womens-WMNS-White-Black-White/dp/B079QJTH57/ref=sr_1_47?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-47</t>
-  </si>
-  <si>
-    <t>214
-.</t>
-  </si>
-  <si>
-    <t>Nike Men's Running Shoes</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Running-Shoes-White-Varsity/dp/B01IODLXCS/ref=sr_1_48?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-48</t>
-  </si>
-  <si>
-    <t>Nike Men's Shoes Blazer Mid '77 Indigo CI1166-100</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Blazer-Indigo-CI1166-100-Numeric_11_Point_5/dp/B097JC9MP8/ref=sr_1_49?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-49</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Reposto-Womens-Running-Cz5630-104/dp/B08PKBR9BP/ref=sr_1_50?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-50</t>
-  </si>
-  <si>
-    <t>Nike Men's Shoes Air Vapormax Plus Spider Man Catch DJ5189-001</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Vapormax-Spider-DJ5189-001-Numeric_11/dp/B099MZMJZC/ref=sr_1_51?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-51</t>
-  </si>
-  <si>
-    <t>Nike Women's Training</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Legend-Essential-Running-CQ9545-001/dp/B08GJ466DQ/ref=sr_1_52?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-52</t>
-  </si>
-  <si>
-    <t>Nike Reax 8 TR Men's Cross-Trainers Athletic Sneakers Shoes</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Mens-Reax-Training-Black/dp/B07DCJ519Q/ref=sr_1_53?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-53</t>
-  </si>
-  <si>
-    <t>123
-.</t>
-  </si>
-  <si>
-    <t>Nike Men's Downshifter 9 Running Shoe</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Downshifter-Sneaker-Black-White/dp/B07H81Q987/ref=sr_1_54?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-54</t>
-  </si>
-  <si>
-    <t>107
-.</t>
-  </si>
-  <si>
-    <t>Nike Men's Air Jordan 6 Retro Electric Green Basketball Shoes (11.5)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Jordan-Retro-Electric-Green/dp/B096RDX6B8/ref=sr_1_55?crid=2COODNPSQ17M5&amp;keywords=nike+sport+shoes&amp;qid=1642021910&amp;sprefix=nike+sport+shoes%2Caps%2C505&amp;sr=8-55</t>
-  </si>
-  <si>
-    <t>Amazon Brand - Happy Belly Creamy Peanut Butter, 40 Ounce</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Amazon-Brand-Creamy-Peanut-Butter/dp/B07KWGSCW2/ref=sr_1_6?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-6</t>
-  </si>
-  <si>
-    <t>SKIPPY Peanut Butter, Super Chunky, 40 Ounce Twin Pack</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Skippy-Super-Peanut-Butter-Ounces/dp/B07DTSJ7FM/ref=sr_1_7?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-7</t>
-  </si>
-  <si>
-    <t>SKIPPY Peanut Butter, Creamy, 7 g protein per serving, 64 oz.</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Skippy-Creamy-Peanut-Butter-Ounce/dp/B06XXZPZVD/ref=sr_1_8?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-8</t>
-  </si>
-  <si>
-    <t>SKIPPY SUPER CHUNK Extra Crunchy Peanut Butter, 64 Ounce</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Skippy-Super-Chunk-Peanut-Butter/dp/B07J191WP2/ref=sr_1_9?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-9</t>
-  </si>
-  <si>
-    <t>PBfit All-Natural Peanut Butter Powder Spread From Real Roasted Pressed Peanuts, 8g of Protein, 30 Oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/PBfit-All-Natural-Powdered-Roasted-Pressed/dp/B01KKEECLS/ref=sr_1_10?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-10</t>
-  </si>
-  <si>
-    <t>Jif to Go Peanut Butter 1.5 Oz. 8/Box (Pack of 2)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Jif-Peanut-Butter-1-5-Pack/dp/B086GDLD1C/ref=sr_1_11?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-11</t>
-  </si>
-  <si>
-    <t>Skippy Creamy Peanut Butter, 64 Ounce</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Skippy-Peanut-Butter-Creamy-64/dp/B01MSK6YV6/ref=sr_1_12?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-12</t>
-  </si>
-  <si>
-    <t>Santa Cruz Organic Creamy Light Roasted Peanut Butter, 16 Ounces</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Santa-Cruz-Organic-Peanut-Roasted/dp/B06XHZ5MXM/ref=sr_1_13?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-13</t>
-  </si>
-  <si>
-    <t>Teddie Smooth Old Fashioned All Natural Peanut Butter-16 Ounce Jar</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Teddie-Fashioned-Natural-Peanut-Butter-16/dp/B001RO6Z3O/ref=sr_1_14?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-14</t>
-  </si>
-  <si>
-    <t>Jif Natural Creamy Peanut Butter Spread, 28 Ounces, Contains 90% Peanuts</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Jif-Creamy-Omega-3-Peanut-Butter/dp/B004HGQLR4/ref=sr_1_15?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-15</t>
-  </si>
-  <si>
-    <t>SKIPPY Creamy Peanut Butter Individual Squeeze Packs, 1.15 Ounce (64 Pouches)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SKIPPY-Creamy-Individual-Squeeze-Pouches/dp/B08BXPN4V4/ref=sr_1_16?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-16</t>
-  </si>
-  <si>
-    <t>37
-.</t>
-  </si>
-  <si>
-    <t>Teddie All Natural Peanut Butter, Smooth, 16-Ounce Jar (Pack of 4)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Teddie-Natural-Peanut-Butter-16-Ounce/dp/B006045OJ2/ref=sr_1_17?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-17</t>
-  </si>
-  <si>
-    <t>Jif Creamy Peanut Butter, 2 16-ounce Jars, Natural Delicious Flavor, Packed with Healthy Proteins for Kids and Adults, With Erbies Spreader Spatula</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/16-ounce-Delicious-Proteins-Erbies-Spreader/dp/B08SY8YLH1/ref=sr_1_18?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-18</t>
-  </si>
-  <si>
-    <t>SKIPPY Squeeze Creamy Peanut Butter, 6 Ounce (Pack of 6)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SKIPPY-Squeeze-Creamy-Peanut-Butter/dp/B089PJ26DT/ref=sr_1_19?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-19</t>
-  </si>
-  <si>
-    <t>SKIPPY Creamy Peanut Butter, 16.3 Ounce (Pack of 8)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Skippy-Creamy-Peanut-Butter-16-3/dp/B07Y944JQR/ref=sr_1_20?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-20</t>
-  </si>
-  <si>
-    <t>Jif Creamy Peanut Butter, 40 Ounces (Pack of 2), 7g (7% DV) of Protein Per Serving, Smooth, Creamy Texture, No Stir Peanut Butter</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Jif-Creamy-Peanut-Butter-Ounce/dp/B00061ETX2/ref=sr_1_21?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-21</t>
-  </si>
-  <si>
-    <t>SKIPPY Creamy Peanut Butter, 5 Pound</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Skippy-Creamy-Peanut-Butter-Pound/dp/B00LPE5EZQ/ref=sr_1_22?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-22</t>
-  </si>
-  <si>
-    <t>Jif No Added Sugar Creamy Peanut Butter Spread, 33.5 Ounces (Pack of 8), Smooth, Creamy Texture, No Stir Peanut Butter Spread</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Jif-Creamy-Peanut-Butter-Texture/dp/B08B4LQCPT/ref=sr_1_23?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-23</t>
-  </si>
-  <si>
-    <t>Skippy Peanut Butter, Creamy, 16.3 Oz, (Pack of 2)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Skippy-Creamy-Peanut-Butter-16-3/dp/B00VLLUAEI/ref=sr_1_24?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-24</t>
-  </si>
-  <si>
-    <t>14
-.</t>
-  </si>
-  <si>
-    <t>SKIPPY Natural Peanut Butter Spread, Creamy, 7 g protein per serving, 40 oz.</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Skippy-Natural-Creamy-Peanut-Butter/dp/B003ZWI61U/ref=sr_1_25?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-25</t>
-  </si>
-  <si>
-    <t>Jif Natural Creamy Peanut Butter Spread, 16 Ounces (Pack of 12), Contains 90% Peanuts</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Jif-Natural-Creamy-Peanut-Butter/dp/B07MBR49F6/ref=sr_1_29?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-29</t>
-  </si>
-  <si>
-    <t>Jif Creamy Peanut Butter, 28 Ounces</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Jif-Creamy-Peanut-Butter-28/dp/B000R30LD6/ref=sr_1_30?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-30</t>
-  </si>
-  <si>
-    <t>Teddie Peanut Butter, Peanut Butter, 16 Ounce</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Teddie-Chunky-Fashioned-Natural-Peanut/dp/B0054Y1U74/ref=sr_1_31?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-31</t>
-  </si>
-  <si>
-    <t>Justins, Peanut Butter Spread Classic, 28 Ounce</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Justins-Butter-PNUT-Classic-Pack/dp/B07BJD3LB1/ref=sr_1_32?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-32</t>
-  </si>
-  <si>
-    <t>Skippy Peanut Butter, Creamy, 16.3 oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Skippy-Creamy-Peanut-Butter-Ounce/dp/B0055QCGWE/ref=sr_1_33?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-33</t>
-  </si>
-  <si>
-    <t>Crazy Richard Peanut Butter, Creamy, 16 oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Crazy-Richard-Peanut-Butter-Creamy/dp/B01IRA6DZU/ref=sr_1_34?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-34</t>
-  </si>
-  <si>
-    <t>Jif Creamy Peanut Butter, 40 Ounces</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Jif-Peanut-Butter-Creamy-40/dp/B000R2Z2S6/ref=sr_1_35?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-35</t>
-  </si>
-  <si>
-    <t>Santa Cruz Organic Creamy Light Roasted, Peanut Butter, 16 Oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Santa-Cruz-Organic-Roasted-Creamy/dp/B00S7JFK42/ref=sr_1_36?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-36</t>
-  </si>
-  <si>
-    <t>11
-.</t>
-  </si>
-  <si>
-    <t>Adams Food, Peanut Butter Crunchy Salt Organic, 16 Ounce</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Adams-Food-Peanut-Crunchy-Organic/dp/B078157FFD/ref=sr_1_37?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-37</t>
-  </si>
-  <si>
-    <t>Jif: Creamy Family Size Peanut Butter, 4 lb by Jif</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Jif-Creamy-Family-Peanut-Butter/dp/B01LZV370H/ref=sr_1_38?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-38</t>
-  </si>
-  <si>
-    <t>Jif Creamy Peanut Butter (48 oz., 2 pk.) ES</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Jif-Creamy-Peanut-Butter-pk/dp/B07CYV1F47/ref=sr_1_39?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-39</t>
-  </si>
-  <si>
-    <t>Earth Balance Coconut Peanut Butter Creamy (2x16oz)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Earth-Balance-Coconut-Peanut-Butter/dp/B007Q3P1GC/ref=sr_1_40_mod_primary_new?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-40</t>
-  </si>
-  <si>
-    <t>19
-.</t>
-  </si>
-  <si>
-    <t>Justin's Nut Butter Honey Peanut Butter, 28 Ounce (Pack of 1)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Justins-Butter-Ingredients-Gluten-free-Responsibly/dp/B07DF1SJCD/ref=sr_1_41?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-41</t>
-  </si>
-  <si>
-    <t>Crazy Richard Peanut Butter, Crunchy, 16 oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Crazy-Richards-Natural-Chunky-Peanut/dp/B00E3X1LUI/ref=sr_1_42?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-42</t>
-  </si>
-  <si>
-    <t>Santa Cruz Organic Crunchy Dark Roasted Peanut Butter, 16 Ounces</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Santa-Cruz-Organics-Crunchy-Roasted/dp/B0046HNS8Y/ref=sr_1_43?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-43</t>
-  </si>
-  <si>
-    <t>PBfit All-Natural Organic Peanut Butter Powder, Powdered Peanut Spread from Real Roasted Pressed Peanuts, 8g of Protein (30 oz.)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/PBfit-All-Natural-Organic-Roasted-Ingredients/dp/B01FYXCQ1S/ref=sr_1_44?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-44</t>
-  </si>
-  <si>
-    <t>16
-.</t>
-  </si>
-  <si>
-    <t>Once Again Organic, Creamy Peanut Butter - Salt Free, Unsweetened - 16 oz Jar</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Once-Again-Organic-Smooth-Butter/dp/B0046HNRPS/ref=sr_1_45?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-45</t>
-  </si>
-  <si>
-    <t>Jif Natural Creamy Peanut Butter Spread, 40 Ounces, Contains 90% Peanuts</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Jif-Creamy-Peanut-Butter-spread/dp/B01IF0GFQO/ref=sr_1_46?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-46</t>
-  </si>
-  <si>
-    <t>Peanut Butter &amp; Co. Smooth Operator Peanut Butter, Non-GMO Project Verified, Gluten Free, Vegan, 16 Ounce (Pack of 6)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Peanut-Butter-Co-Operator-Verified/dp/B001GQ3E28/ref=sr_1_47?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-47</t>
-  </si>
-  <si>
-    <t>Jif to Go Peanut Butter 1.5 Oz. 8/Box (Pack of 4)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Jif-Peanut-Butter-1-5-Pack/dp/B0875PV3FV/ref=sr_1_48?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-48</t>
-  </si>
-  <si>
-    <t>365 by Whole Foods Market, Peanut Butter Sweetened Smooth Organic, 16 Ounce</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/365-Everyday-Value-Organic-Creamy/dp/B074H5SSHX/ref=sr_1_49?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-49</t>
-  </si>
-  <si>
-    <t>365 by Whole Foods Market, Peanut Butter Crunchy With Salt, 16 Ounce</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/365-Everyday-Value-Peanut-Crunchy/dp/B074H65ZW8/ref=sr_1_50?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-50</t>
-  </si>
-  <si>
-    <t>All Natural Peanut Butter &amp; Co. Smooth Operator Net Wt. 16 Oz (1LB) 454g</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Natural-Peanut-Butter-Co-Operator/dp/B001I2PMSO/ref=sr_1_51_mod_primary_new?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sbo=RZvfv%2F%2FHxDF%2BO5021pAnSA%3D%3D&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-51</t>
-  </si>
-  <si>
-    <t>9
-.</t>
-  </si>
-  <si>
-    <t>Skippy Peanut Butter, Chunky, 28 oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Skippy-Peanut-Butter-Chunky-28/dp/B00PYWRQLU/ref=sr_1_52?crid=Q1X1JUC2M9D2&amp;keywords=peanut+butter&amp;qid=1642021921&amp;sprefix=peanut+butter%2Caps%2C314&amp;sr=8-52</t>
-  </si>
-  <si>
-    <t>New Zealand Full Cream Goat Milk Powder (Natural) - 14oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Zealand-Goat-Milk-Powder-Natural/dp/B074CLQJPB/ref=sr_1_5?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-5</t>
-  </si>
-  <si>
-    <t>20
-.</t>
-  </si>
-  <si>
-    <t>MEYENBERG GOAT MILK LIQ EVAPRTD, 12 OZ (Pack of 3)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/MEYENBERG-GOAT-MILK-EVAPRTD-Pack/dp/B00GBZL71O/ref=sr_1_6?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-6</t>
-  </si>
-  <si>
-    <t>Whole Goat Milk by Mt. Capra | A Whole Goat Milk Powder from Non-GMO, Grass-fed Goats, Creamy, Great Tasting, Easy to Digest, A2 Milk - 1 pound</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Powder-Non-GMO-Grass-fed-Creamy-Tasting/dp/B01138IKG8/ref=sr_1_7?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-7</t>
-  </si>
-  <si>
-    <t>Goat Milk Toddler Formula – Growth Spurt Powdered Goat's Milk Toddler Formula – Lactoferrin, 2'-FL HMO, Prebiotics, Probiotics, Iron, DHA &amp; ARA, Immune Support, Non GMO Infant Baby Transition Weaning</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Goat-Milk-Toddler-Formula-Lactoferrin/dp/B093FWPTPL/ref=sr_1_8?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-8</t>
-  </si>
-  <si>
-    <t>PetAg Esbilac Goat's Milk Powder Puppy Milk Replacer - Milk Formula for Puppies with Sensitive Digestive Systems</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/PetAg-Goats-Milk-Esbilac-Powder/dp/B002JHR0PK/ref=sr_1_9?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-9</t>
-  </si>
-  <si>
-    <t>Meyenberg, Goat Milk Whole Powdered Can, 12 OZ (Pack of 12)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Meyenberg-Goat-Milk-Whole-Powdered/dp/B004AHE1CC/ref=sr_1_10?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-10</t>
-  </si>
-  <si>
-    <t>160
-.</t>
-  </si>
-  <si>
-    <t>PetAg Goat's Milk Esbilac Powder - 12 Ounce (2 Pack)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/PetAg-Goats-Milk-Esbilac-Powder/dp/B01LBA6MCC/ref=sr_1_11?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-11</t>
-  </si>
-  <si>
-    <t>Growth Spurt Goat Milk Toddler Formula – (12 Pack) Powdered Goat's Milk Toddler Formula – Lactoferrin, 2'-FL HMO, Prebiotics, Probiotics, Iron, DHA &amp; ARA, Immune Support, Non GMO Infant Baby</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Goat-Milk-Formula-Lactoferrin-Prebiotics/dp/B086J9L3HX/ref=sr_1_12?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-12</t>
-  </si>
-  <si>
-    <t>Raw Paws Frozen Raw &amp; Powdered Goat Milk for Dogs &amp; Cats - Made in USA - Milk Replacer for Puppies &amp; Kittens - Goats Milk Supplement for Pets - Pet Food Topper &amp; Enhancer</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Raw-Paws-Whole-Goat-Powder/dp/B07NXN39B4/ref=sr_1_13?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-13</t>
-  </si>
-  <si>
-    <t>Meyenberg Whole Powdered Goat Milk, 12 Ounce (6 Pack)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Meyenberg-Whole-Powdered-Goat-Ounce/dp/B0083P1MBA/ref=sr_1_14?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-14</t>
-  </si>
-  <si>
-    <t>85
-.</t>
-  </si>
-  <si>
-    <t>Dionis - Goat Milk Skincare Unscented Lotion (8.5 oz) - Made in the USA - Cruelty-free and Paraben-free</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Dionis-Original-Skincare-Unscented-Lotion/dp/B008MOXD3C/ref=sr_1_15?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-15</t>
-  </si>
-  <si>
-    <t>13
-.</t>
-  </si>
-  <si>
-    <t>Kabrita Goat Milk Toddler Formula, 14 Ounce (Pack of 1)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Kabrita-Non-GMO-Goat-Toddler-Formula/dp/B00MJ4ZC62/ref=sr_1_16?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-16</t>
-  </si>
-  <si>
-    <t>Kabrita Goat Milk Toddler Formula, 28 Oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Kabrita-Non-GMO-Goat-Toddler-Formula/dp/B00MJ4ZU32/ref=sr_1_17?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-17</t>
-  </si>
-  <si>
-    <t>Australian Botanical Soap, Goat's Milk &amp; Soya Bean Oil Pure Plant Oil Soap, 6.8 oz. 193g Bars - 8 Count</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Australian-Botanical-Soap-Goats-Natural/dp/B07M68CHV9/ref=sr_1_18?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-18</t>
-  </si>
-  <si>
-    <t>23
-.</t>
-  </si>
-  <si>
-    <t>Meyenberg - Meyenberg Goat Milk (Powdered), 12 oz powder (Pack of 2)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Meyenberg-Goat-Milk-Powdered-powder/dp/B0083JVVUI/ref=sr_1_19?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-19</t>
-  </si>
-  <si>
-    <t>35
-.</t>
-  </si>
-  <si>
-    <t>Nature By Canus Creamy Body Lotion, Original, 11.8 Oz, With Smoothing Fresh Canadian Goat Milk, Vitamin A, B3, Potassium, Zinc, and Selenium</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nature-Canus-Creamy-Canadian-Original/dp/B00JIKZR1A/ref=sr_1_20?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-20</t>
-  </si>
-  <si>
-    <t>12
-.</t>
-  </si>
-  <si>
-    <t>Naked Goat - 100% Pasture Fed Goat Whey Protein Powder from Small-Herd Wisconsin Dairies, 2lb Bulk, GMO Free, Soy Free. Easy to Digest - All Natural - 23 Grams of Protein - 30 Servings</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/NAKED-GOAT-Small-Herd-Wisconsin-Servings/dp/B00NBJ377K/ref=sr_1_21?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-21</t>
-  </si>
-  <si>
-    <t>Goat Whey Protein Powder Concentrate - Unflavored &amp; Undenatured - Grass Fed in USA - Good Source of BCAA - No Hormones or Antibiotics - 100% Pure, Gluten Free, Non GMO, Kosher - 1 lb</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Goat-Whey-Protein-Powder-Concentrate/dp/B08C7B9Y8R/ref=sr_1_22?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-22</t>
-  </si>
-  <si>
-    <t>Non-Fat Goat Milk by Mt. Capra Since 1928 | An Easy to Digest, Fat-Free, Non-GMO Goat Milk Powder from Grass Fed Pastured Goats - 1 pound</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Capra-Milk-Powder-Non-Fat-non-GMO/dp/B000YQBSXS/ref=sr_1_23?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-23</t>
-  </si>
-  <si>
-    <t>Dionis Goat Milk Body Lotion and Hand Cream 2 Piece Gift Set - Love</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Dionis-Goat-Lotion-Cream-Piece/dp/B01M8Q38EV/ref=sr_1_24?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-24</t>
-  </si>
-  <si>
-    <t>MT. CAPRA SINCE 1928 | Goat Milk Lactose Powder, Pure Milk Sugar from Goats, Boost Beneficial Gut Bacteria Lactobacillus Acidophilus in GI-Tract - 13.8 Ounces</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/MT-CAPRA-SINCE-1928-Lactobacillus/dp/B016ATC1UQ/ref=sr_1_28?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-28</t>
-  </si>
-  <si>
-    <t>Meyenberg Evaporated Goat Milk (3 Pack) 12 oz Cans by Meyenberg</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Meyenberg-Evaporated-Goat-Milk-Pack/dp/B00U9VZ4LA/ref=sr_1_29?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-29</t>
-  </si>
-  <si>
-    <t>teraswhey Goat Whey Protein, Plain 12 oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/teraswhey-Goat-Whey-Protein-Plain/dp/B008QMWXHM/ref=sr_1_30?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-30</t>
-  </si>
-  <si>
-    <t>Meyenberg Goat Milk, Whole Powdered Goat Milk, Vitamin D, 12 oz (340 g)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Meyenberg-Goat-Whole-Powdered-Vitamin/dp/B01M11ZOTO/ref=sr_1_31?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-31</t>
-  </si>
-  <si>
-    <t>Hoosier Hill Farm All American Dairy Whole Milk Powder 1 lb</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Hoosier-Hill-Farm-American-Powder/dp/B0099XI58S/ref=sr_1_32?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-32</t>
-  </si>
-  <si>
-    <t>Silk Shelf-Stable Almond Milk, Unsweetened Vanilla, Dairy-Free, Vegan, Non-GMO Project Verified, 1 Quart (Pack of 6)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Silk-Unsweetened-Flavored-Non-Dairy-Dairy-free/dp/B00PGXQ68Q/ref=sr_1_33?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-33</t>
-  </si>
-  <si>
-    <t>Maple Hill Shelf Stable Whole White Milk 100% Grass Fed, Organic, Non-GMO: 12 Pack 8 Fl Oz Aseptic Milk Boxes</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Maple-Hill-Grass-Fed-Organic-12pack/dp/B07WWG1QL1/ref=sr_1_34?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-34</t>
-  </si>
-  <si>
-    <t>NIDO Fortificada Dry Whole Milk Powdered Drink Mix</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/NESTLE-NIDO-Fortificada-Ounce-Canister/dp/B00FRFRZF6/ref=sr_1_35?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-35</t>
-  </si>
-  <si>
-    <t>Meyenberg Powdered Instant Goat Milk (12x12/12 Oz)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Meyenberg-Powdered-Instant-Goat-12x12/dp/B0082AV130/ref=sr_1_36?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-36</t>
-  </si>
-  <si>
-    <t>Rawel Premium Goat's Milk Protein A+ (9.87oz) / High in Protein to Support Growth / Supports Gut Health and Digestion / Whey Protein Isolate(WPI)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Rawel-Premium-Goats-Protein-9-87oz/dp/B08VNWB9MD/ref=sr_1_37?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-37</t>
-  </si>
-  <si>
-    <t>Meyenberg Evaporated Goat Milk, 12 oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Meyenberg-Evaporated-Goat-Milk-12/dp/B0005XODQY/ref=sr_1_38?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-38</t>
-  </si>
-  <si>
-    <t>Hoosier Hill Farm All American Whole Milk Powder, 2lbs (32oz) | Made in USA, Batch tested gluten-free, Hormone-Free, No additives</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Hoosier-Hill-American-Powder-tested/dp/B08769TPSY/ref=sr_1_39?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-39</t>
-  </si>
-  <si>
-    <t>GOAT GHEE A2/A2 BY GOLD NUGGET GHEE, FULL-YEAR/PASTURE-RAISED, GRASS-FED, KETO &amp; PALEO 8oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/NUGGET-PASTURE-RAISED-GRASS-FED-PALEO/dp/B07B29DSXL/ref=sr_1_40?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-40</t>
-  </si>
-  <si>
-    <t>MANOA CHOCOLATE Goat Milk Chocolate Bar, 2 OZ</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Manoa-Goat-Milk-69/dp/B07BJ9S4L7/ref=sr_1_41?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-41</t>
-  </si>
-  <si>
-    <t>Aadvik Goat Milk Powder | Freeze Dried | Pure and Natural I 7.02 Oz</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Aadvik-Powder-Freeze-Dried-Natural/dp/B07PQ8JJBS/ref=sr_1_42?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-42</t>
-  </si>
-  <si>
-    <t>Meyenberg Whole Powdered Goat Milk, Vitamin D, 12 Ounce (Pack of 3)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Meyenberg-Whole-Powdered-Vitamin-Ounce/dp/B001E5DZTS/ref=sr_1_43?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-43</t>
-  </si>
-  <si>
-    <t>Meyenberg Goat Milk Liq Evaprtd</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Meyenberg-Goat-Milk-Liq-Evaprtd/dp/B005GTUTO2/ref=sr_1_44?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-44</t>
-  </si>
-  <si>
-    <t>HYE FOODS Goat Milk Powder I Whole Milk Powder | 17.60 Oz (500gms)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/FOODS-Powder-Whole-17-60-500gms/dp/B08123GQQR/ref=sr_1_45?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-45</t>
-  </si>
-  <si>
-    <t>Pompeian Robust Extra Virgin Olive Oil, First Cold Pressed, Full-Bodied Flavor, Perfect for Salad Dressings &amp; Marinades, 32 FL. OZ.</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Pompeian-Pressed-Full-Bodied-Dressings-Marinades/dp/B0004MZVEE/ref=sr_1_46?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-46</t>
-  </si>
-  <si>
-    <t>Meyenberg Evaporated Goat Milk -- 12 fl oz (Pack of 2)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Meyenberg-Evaporated-Goat-Milk-Pack/dp/B00DEEXZLU/ref=sr_1_47?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-47</t>
-  </si>
-  <si>
-    <t>Hoosier Hill Farm Heavy Cream Powder Jar, 1 Pound</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Hoosier-Hill-Farm-Heavy-Powder/dp/B00OCV3QRW/ref=sr_1_48?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-48</t>
-  </si>
-  <si>
-    <t>Nature by Canus Bar Soap, Shea Buttr, 5 Oz, With Fresh Canadian Goat Milk, Vitamin A, B3, Potassium, Zinc, and Selenium (89824)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nature-Canus-Vegetal-Canadian-Butter/dp/B00K6BFG6Q/ref=sr_1_49?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-49</t>
-  </si>
-  <si>
-    <t>Mt. Capra Goat Whey Protein | Grass-Fed Undenatured Whey Protein Powder from Pastured Goats, High in Branch Chain Amino Acids, Natural Vanilla - 1 Pound</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Capra-Undenatured-Concentrate-All-Natural-Glutathione/dp/B016P46EFE/ref=sr_1_50?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-50</t>
-  </si>
-  <si>
-    <t>Meyenberg Whole Powdered Goat Milk, Vitamin D, 12 Ounce</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Meyenberg-Whole-Powdered-Vitamin-Ounce/dp/B01B7KYHNC/ref=sr_1_51?crid=1ZAJWYOXRDJ2P&amp;keywords=goat+milk&amp;qid=1642021916&amp;sprefix=goat+milk%2Caps%2C226&amp;sr=8-51</t>
-  </si>
-  <si>
-    <t>DALIX Flat Billed Trucker Hat Mesh Back S M L Adjustable Cap Solid Two Toned Snapback</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Flat-Billed-Trucker-Mesh-Red-White/dp/B00IE1MK3W/ref=sr_1_2?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-2</t>
-  </si>
-  <si>
-    <t>8
-.</t>
-  </si>
-  <si>
-    <t>Red White Long Beanie - Waldo Costume</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Red-White-Long-Beanie-Costume/dp/B07G2S4PGC/ref=sr_1_3?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t>Red White Pom Pom Cuff Knit Beanie Hat</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Waldo-Costume-White-Cuff-Beanie/dp/B0149GU5HI/ref=sr_1_4?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-4</t>
-  </si>
-  <si>
-    <t>SAJUZEN Two Tone Fedora Hats for Women Wide Brim Felt Mens Fedora Hats</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SAJUZEN-Tone-Fedora-Women-White/dp/B08FC95M6B/ref=sr_1_5?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-5</t>
-  </si>
-  <si>
-    <t>24
-.</t>
-  </si>
-  <si>
-    <t>SVEN HOME Soft Slouchy Beanies Knit Warm Winter Unisex Cap Thick Women's Men Hat</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Sven-Home-Slouchy-White-Red/dp/B074SHRPSY/ref=sr_1_6?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-6</t>
-  </si>
-  <si>
-    <t>SSLR Adult Halloween Red White Christmas Beanie Hat</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SSLR-Adult-White-Christmas-Beanie/dp/B07HT1B6Q4/ref=sr_1_7?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-7</t>
-  </si>
-  <si>
-    <t>Flexfit Men's Trucker Mesh Multicam</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Flexfit-Mens-Two-Tone-Stretch-White/dp/B07D3NXHR6/ref=sr_1_8?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-8</t>
-  </si>
-  <si>
-    <t>Under Armour Men's Blank Blitzing Cap</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Under-Armour-Blank-Blitzing-X-Large/dp/B07J1YR6P7/ref=sr_1_9?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-9</t>
-  </si>
-  <si>
-    <t>21
-.</t>
-  </si>
-  <si>
-    <t>SSLR Big Kids Halloween Red White Beanie Hat</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SSLR-Halloween-White-Waldo-Beanie/dp/B07KLTYFGH/ref=sr_1_10?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-10</t>
-  </si>
-  <si>
-    <t>DALIX Two Tone Trucker Hat Summer Mesh Cap with Adjustable Snapback Strap</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/DALIX-Blank-Summer-White-Trucker/dp/B00FD71HSO/ref=sr_1_11?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-11</t>
-  </si>
-  <si>
-    <t>Geyoga 3 Pieces Sublimation Trucker Hat Sublimation Blank Mesh Hat Adjustable Sublimation Blank Polyester Mesh Cap</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Geyoga-Sublimation-Trucker-Adjustable-Polyester/dp/B09334HK24/ref=sr_1_12?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-12</t>
-  </si>
-  <si>
-    <t>18
-.</t>
-  </si>
-  <si>
-    <t>adidas Originals Beacon 4.0 Adjustable Snapback Cap, One Size</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/adidas-Originals-Beacon-Adjustable-Snapback/dp/B09HVCWLKY/ref=sr_1_13?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-13</t>
-  </si>
-  <si>
-    <t>29
-.</t>
-  </si>
-  <si>
-    <t>Armycrew Oversized XXL 5 Panel Flat Bill Foam Trucker Mesh Back Baseball Cap</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Armycrew-Oversized-Panel-Trucker-Baseball/dp/B08MTCL7SS/ref=sr_1_14?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-14</t>
-  </si>
-  <si>
-    <t>RVCA Men's Adjustable Snapback Mesh Trucker Hat</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/RVCA-Mens-Trucker-White-Size/dp/B07XPFCY1C/ref=sr_1_15?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-15</t>
-  </si>
-  <si>
-    <t>26
-.</t>
-  </si>
-  <si>
-    <t>Armycrew Red White Stripe Long Cuff Beanie</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Armycrew-White-Stripe-Long-Beanie/dp/B07J2418XV/ref=sr_1_16?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-16</t>
-  </si>
-  <si>
-    <t>QHQ 54inch Super Long Christmas Santa Hat Classic Red and White Chistmas Cap for Adults(Adults,Christmas hat)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/QHQ-54inch-Christmas-Classic-Chistmas/dp/B09BVCNXHH/ref=sr_1_17?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-17</t>
-  </si>
-  <si>
-    <t>URATOT Halloween Costume Red White Pom Pom Beanie Hat Christmas Cuff Knit Hat</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/URATOT-Halloween-Costume-Beanie-Christmas/dp/B07W8ZZ46P/ref=sr_1_18?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-18</t>
-  </si>
-  <si>
-    <t>Quanhaigou Skull Skeleton Baseball Cap, Men Solid Flat Bill Adjustable Snapback Hats Unisex</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Quanhaigou-Snapback-Graffiti-Baseball-Adjustable/dp/B072N7JR1D/ref=sr_1_19?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-19</t>
-  </si>
-  <si>
-    <t>15
-.</t>
-  </si>
-  <si>
-    <t>DALIX Youth Mesh Trucker Cap - Adjustable Hat (S, M Sizes)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/DALIX-Kids-Trucker-Youth-White/dp/B008M10RMA/ref=sr_1_20?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-20</t>
-  </si>
-  <si>
-    <t>L2K Classics Plain Trucker Mesh Cap Baseball Cap - Mens Hats Trucker Hats for Men</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/L2K-Classics-Plain-Trucker-Baseball/dp/B09647X9V7/ref=sr_1_21?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-21</t>
-  </si>
-  <si>
-    <t>Oakley Men's Tincan Cap</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Oakley-Tincan-White-Small-Medium/dp/B01MR6LRRW/ref=sr_1_22?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-22</t>
-  </si>
-  <si>
-    <t>Grace Folly Trucker Hat for Men &amp; Women. Snapback Mesh Caps</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Grace-Folly-Trucker-Women-Snapback/dp/B07JGDDLCN/ref=sr_1_23?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-23</t>
-  </si>
-  <si>
-    <t>Champion - Ribbed Knit Cap - CS4003</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Champion-Ribbed-Knit-CS4003-Scarlet/dp/B07WHVV2HP/ref=sr_1_24?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-24</t>
-  </si>
-  <si>
-    <t>Nike Men's 518015-010 Tech Swoosh Cap</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/NIKE-102699-658-Team-Campus-Cap-red/dp/B00HW1IPI4/ref=sr_1_28?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-28</t>
-  </si>
-  <si>
-    <t>28
-.</t>
-  </si>
-  <si>
-    <t>SAJUZEN Womens &amp; Mens Fedora Hats, Two Tone Wide Brim Fedora Hats for Women Men</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SAJUZEN-Womens-Fedora-Women-White-red/dp/B08CD8NGYT/ref=sr_1_29?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-29</t>
-  </si>
-  <si>
-    <t>Armycrew Red White Stripe Short Skull Beanie</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Armycrew-White-Stripe-Short-Beanie/dp/B07J23GKD4/ref=sr_1_30?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-30</t>
-  </si>
-  <si>
-    <t>Red Dirt Hat Company Buffalo Skull Adjustable Hat</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Red-Dirt-Hat-Company-Adjustable/dp/B07YSVH6D9/ref=sr_1_31?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-31</t>
-  </si>
-  <si>
-    <t>30
-.</t>
-  </si>
-  <si>
-    <t>Kafeimali Baby Christmas Elf Long Tail Crochet Beanie Knit Hat Stocking Caps</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Kafeimali-Christmas-Crochet-Beanie-Stocking/dp/B01LYZSLWN/ref=sr_1_32?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-32</t>
-  </si>
-  <si>
-    <t>e4Hats.com Smile Face Embroidered Foam Mesh Back Cap</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/E4hats-Smiley-Face-Embroidered-Foam/dp/B00KTG3Y9Y/ref=sr_1_33?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-33</t>
-  </si>
-  <si>
-    <t>CC Football Basketball Team Colors Pom Winter Chunky Stretchy Knit Beanie Hat</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Football-Basketball-Colors-Winter-Stretchy/dp/B07YX51H4V/ref=sr_1_34?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-34</t>
-  </si>
-  <si>
-    <t>17
-.</t>
-  </si>
-  <si>
-    <t>Nike Women's Unisex Legacy91 Tech Hat</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nike-Unisex-Legacy91-University-Anthracite/dp/B07S4KNDFZ/ref=sr_1_35?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-35</t>
-  </si>
-  <si>
-    <t>KUJUHA Fedora Hats for Women Men, Wide Brim Fedora Hat with Felt Band</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/XINBONG-Womens-Fedora-Buckle-Panama/dp/B08CKC1RT7/ref=sr_1_36?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-36</t>
-  </si>
-  <si>
-    <t>Ultrafun 10 Pack Unisex Sublimation Blank Mesh Baseball Cap Polyester Mesh Trucker Hat</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Ultrafun-Sublimation-Baseball-Polyester-10Pack-Red/dp/B09DCFS41Q/ref=sr_1_37?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-37</t>
-  </si>
-  <si>
-    <t>32
-.</t>
-  </si>
-  <si>
-    <t>Nautica Men's Classic Logo Adjustable Baseball Cap Hat</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Nautica-Mens-Twill-6-Panel-Deck/dp/B009117NJ0/ref=sr_1_38?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-38</t>
-  </si>
-  <si>
-    <t>REVKI Wide Brim Fedora Hats for Women Dress Hats for Men Two Tone Panama Hat with Belt Buckle</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/REVKI-Fedora-Women-Panama-Buckle/dp/B0919H5F55/ref=sr_1_39?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-39</t>
-  </si>
-  <si>
-    <t>State Cashmere Rabbit Fur Removable Pom-Pom Hat 100% Pure Cashmere Cuffed Beanie Ultimately Soft and Warm</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/State-Cashmere-Womens-100-Beanie/dp/B07H7WVTKX/ref=sr_1_40?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-40</t>
-  </si>
-  <si>
-    <t>Black Clover Iron Flex Cap</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Black-Clover-Lucky-Perfect-Heather/dp/B07KV47WQV/ref=sr_1_41?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-41</t>
-  </si>
-  <si>
-    <t>BAGA Compatible with Tesla Logo Embroidered Adjustable Baseball Caps for Men and Women Hat Travel Cap Racing Motor Hat (Red White)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/BAGA-Compatible-Embroidered-Adjustable-Baseball/dp/B09FY9FKZW/ref=sr_1_42?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-42</t>
-  </si>
-  <si>
-    <t>Ruconla Fiber Optic Cap LED hat with 7 Colors Luminous Glowing Hip hop Baseball Hats USB Charging Light up caps Even Party led Christmas Cap for Event Holiday White</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Ruconla-Luminous-Baseball-Charging-Christmas/dp/B081RGQYMC/ref=sr_1_43?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-43</t>
-  </si>
-  <si>
-    <t>SATINIOR Women Winter Knit Hat Winter Brim Beanie Hats for Women Slouchy Beanie Cap with Visor Warm Newsboy Skull Cap</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SATINIOR-Winter-Beanie-Slouchy-Newsboy/dp/B09BHXGQW1/ref=sr_1_44?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-44</t>
-  </si>
-  <si>
-    <t>22
-.</t>
-  </si>
-  <si>
-    <t>ARIAT Men's RWB Shield Logo Flexfit110 Snapback Cap</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/ARIAT-Shield-Flexfit110-Snapback-Heather/dp/B07NXVCB6K/ref=sr_1_45?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-45</t>
-  </si>
-  <si>
-    <t>CHOK.LIDS Lumberjack Plaid Winter Trapper Unisex Premium Extra Strength Ear Flap Chin Strap Windproof Outdoor PT201</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/CHOK-LIDS-Trapper-Premium-Strength-Windproof/dp/B08KBRDMHV/ref=sr_1_46?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-46</t>
-  </si>
-  <si>
-    <t>REDESS Women Winter Pom Pom Beanie Hat with Warm Fleece Lined</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/REDESS-Winter-Beanie-Fleece-Slouchy/dp/B076S5KD6N/ref=sr_1_47?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-47</t>
-  </si>
-  <si>
-    <t>Carhartt Men's 105168 Knit Pom-Pom Cuffed Logo Beanie</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Carhartt-Mens-Knit-Cuffed-Beanie/dp/B092DL5LKB/ref=sr_1_48?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-48</t>
-  </si>
-  <si>
-    <t>Champion Ameritage Dad Adjustable Cap</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Champion-Mens-Ameritage-Adjustable-White/dp/B07995MJK9/ref=sr_1_49?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-49</t>
-  </si>
-  <si>
-    <t>RED Dirt Anderson Bean Patch Cap Heather</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Dirt-Anderson-Patch-Heather-Charcoal/dp/B093M7PM7Y/ref=sr_1_50?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-50</t>
-  </si>
-  <si>
-    <t>PAGE ONE Womens Winter Ribbed Beanie Crossed Cap Chunky Cable Knit Pompom Soft Warm Hat</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/PAGE-ONE-Womens-Crossed-Comfortable/dp/B07VKLQPWK/ref=sr_1_51?crid=322VL9QA5CE8R&amp;keywords=red+white+hat&amp;qid=1642022399&amp;sprefix=red+white+hat%2Caps%2C280&amp;sr=8-51</t>
-  </si>
-  <si>
-    <t>KOTIONOK Baseball Bat 28 inch - Self Defense Black Baseball Bat - Aluminum Baseball Bat Home Defense - Metal Baseball Bats</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/KOTIONOK-Baseball-Bat-inch-Self-Defense/dp/B08G44FY24/ref=sr_1_6?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-6</t>
-  </si>
-  <si>
-    <t>Louisville Slugger Ash Wood Tee Ball Baseball Bat</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Louisville-Slugger-Wood-Ball-Baseball/dp/B01K8EPPPC/ref=sr_1_7?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-7</t>
-  </si>
-  <si>
-    <t>Louisville Slugger 2021 BBCOR Meta (-3) Baseball Bat - 32"</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Louisville-Slugger-2021-BBCOR-Baseball/dp/B08LNTV3T5/ref=sr_1_8?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-8</t>
-  </si>
-  <si>
-    <t>349
-.</t>
-  </si>
-  <si>
-    <t>Rawlings Raptor USA Baseball Bat | -10 | 1 Pc. Aluminum | 2 1/4 Barrel</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Rawlings-2020-Raptor-Youth-Baseball/dp/B07TT7W832/ref=sr_1_9?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-9</t>
-  </si>
-  <si>
-    <t>BARNETT Baseball bat BB-1-8/9 28" 29" 31" 32" Aluminium 6061</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/BARNETT-32-Baseball-Strong-Aluminium/dp/B001VC4TCG/ref=sr_1_10?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-10</t>
-  </si>
-  <si>
-    <t>DeMarini CF (-3) BBCOR Baseball Bat - 32"/29oz, Black</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/DeMarini-CF-BBCOR-Baseball-Bat/dp/B08MBH42PQ/ref=sr_1_11?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-11</t>
-  </si>
-  <si>
-    <t>399
-.</t>
-  </si>
-  <si>
-    <t>Rawlings Raptor T-Ball Bat | USA Baseball | -12 | 1 Pc. Aluminum | 2 1/4 Barrel</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Rawlings-2020-Raptor-Youth-Tball/dp/B07TWC5FQ1/ref=sr_1_12?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-12</t>
-  </si>
-  <si>
-    <t>TRUE TEMPER T2-10 l -8 l -5 USA Youth Baseball Bat, 2 5/8 in Barrel, Fuzed Hybrid Contruction, Half Sizes</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/True-2020-USA-Youth-BAT/dp/B08KGTZC1H/ref=sr_1_13?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-13</t>
-  </si>
-  <si>
     <t>KOTIONOK Baseball Bat 28 inch - Self-Defense Softball Black Bat - Home Defense Lightweight Aluminum Alloy Kids</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Baseball-Bat-Self-Defense-Softball-Lightweight/dp/B08CG5S115/ref=sr_1_14?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-14</t>
+    <t>https://www.amazon.com/Baseball-Bat-Self-Defense-Softball-Lightweight/dp/B08CG5S115/ref=sr_1_14?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-14</t>
   </si>
   <si>
     <t>Easton TYPHOON USA Baseball Bat | -12 | 1 Pc. Aluminum | 2 1/4 Barrel</t>
   </si>
   <si>
-    <t>https://www.amazon.com/EASTON-Typhoon-Baseball-Aluminum-Cushioned/dp/B07FNJS22L/ref=sr_1_15?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-15</t>
+    <t>https://www.amazon.com/EASTON-Typhoon-Baseball-Aluminum-Cushioned/dp/B07FNJS22L/ref=sr_1_15?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-15</t>
   </si>
   <si>
     <t>65
@@ -1386,19 +1318,19 @@
     <t>SZYT Baseball Bat Self-Defense Softball Bat Home Defense Lightweight Aluminum Alloy 28 inch Silver</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SZYT-Self-Defense-Aluminum-Baseball-Defense/dp/B07CKBJDR7/ref=sr_1_16?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-16</t>
+    <t>https://www.amazon.com/SZYT-Self-Defense-Aluminum-Baseball-Defense/dp/B07CKBJDR7/ref=sr_1_16?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-16</t>
   </si>
   <si>
     <t>Rawlings 2021 Exclusive Remix USA Youth Baseball Bat Series (-10)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Rawlings-Exclusive-Baseball-Silver-AMAUSAR10-26/dp/B08KTX2QWG/ref=sr_1_20?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-20</t>
+    <t>https://www.amazon.com/Rawlings-Exclusive-Baseball-Silver-AMAUSAR10-26/dp/B08KTX2QWG/ref=sr_1_20?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-20</t>
   </si>
   <si>
     <t>Louisville Slugger 2021 Meta BBCOR/USSSA Baseball Bat - (-3),(-5),(-8),(-10) - 27",28",29",30",31",32",33",34"</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Louisville-Slugger-2021-USSSA-Baseball/dp/B08LNHNM5P/ref=sr_1_21?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-21</t>
+    <t>https://www.amazon.com/Louisville-Slugger-2021-USSSA-Baseball/dp/B08LNHNM5P/ref=sr_1_21?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-21</t>
   </si>
   <si>
     <t>256
@@ -1408,13 +1340,13 @@
     <t>BARNETT BB-W 24'', 28'', 30'', 32'' Wooden Baseball Bat, Wood,</t>
   </si>
   <si>
-    <t>https://www.amazon.com/BB-W-Wooden-baseball-bat-size/dp/B0039NKEZQ/ref=sr_1_22?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-22</t>
+    <t>https://www.amazon.com/BB-W-Wooden-baseball-bat-size/dp/B0039NKEZQ/ref=sr_1_22?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-22</t>
   </si>
   <si>
     <t>Demarini CF (-3) BBCOR Baseball Bat - 30",31",32",33",34"</t>
   </si>
   <si>
-    <t>https://www.amazon.com/DeMarini-CF-BBCOR-Baseball-Bat/dp/B08MBG464X/ref=sr_1_23?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-23</t>
+    <t>https://www.amazon.com/DeMarini-CF-BBCOR-Baseball-Bat/dp/B08MBG464X/ref=sr_1_23?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-23</t>
   </si>
   <si>
     <t>369
@@ -1424,43 +1356,43 @@
     <t>Louisville Slugger 2022 Select PWR BBCOR Baseball Bat: WBL2466010 WBL2466010-22 32" 29 oz.</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Louisville-Slugger-Select-BBCOR-Baseball/dp/B09MHL2BBY/ref=sr_1_24?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-24</t>
+    <t>https://www.amazon.com/Louisville-Slugger-Select-BBCOR-Baseball/dp/B09MHL2BBY/ref=sr_1_24?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-24</t>
   </si>
   <si>
     <t>Wilson Sporting Goods Louisville Slugger 2021 BBCOR Meta (-3) Baseball Bat - 33"/30 oz, Black (001LS282 33 30)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Louisville-Slugger-2021-BBCOR-Baseball/dp/B08LNWGRLN/ref=sr_1_25?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-25</t>
+    <t>https://www.amazon.com/Louisville-Slugger-2021-BBCOR-Baseball/dp/B08LNWGRLN/ref=sr_1_25?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-25</t>
   </si>
   <si>
     <t>Franklin Sports MLB Kids Foam Baseball Bat + Ball Set - Soft Jumbo Foam Bat + Foam Baseball for Kids + Toddlers - Youth Bat Set - 24” Assorted Colors</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Franklin-Sports-Oversized-Baseball-Colors/dp/B002HU2H3E/ref=sr_1_26?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-26</t>
+    <t>https://www.amazon.com/Franklin-Sports-Oversized-Baseball-Colors/dp/B002HU2H3E/ref=sr_1_26?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-26</t>
   </si>
   <si>
     <t>KOTIONOK Baseball Bat 27 inch - Wooden Bat - Wood Baseball Bat Self Defense Bat - Softball Baseball Bats</t>
   </si>
   <si>
-    <t>https://www.amazon.com/KOTIONOK-Baseball-Bat-27-inch/dp/B08V85K5VJ/ref=sr_1_27?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-27</t>
+    <t>https://www.amazon.com/KOTIONOK-Baseball-Bat-27-inch/dp/B08V85K5VJ/ref=sr_1_27?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-27</t>
   </si>
   <si>
     <t>Franklin Sports Grow-with-Me Kids Baseball Batting Tee + Stand Set for Youth + Toddlers - Toy Baseball, Softball + Teeball Hitting Tee Set for Boys + Girls</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Franklin-Sports-Kids-Baseball-Grow/dp/B07HJSHT8P/ref=sr_1_28?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-28</t>
+    <t>https://www.amazon.com/Franklin-Sports-Kids-Baseball-Grow/dp/B07HJSHT8P/ref=sr_1_28?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-28</t>
   </si>
   <si>
     <t>Wilson Sporting Goods Louisville Slugger 2018 Vapor -9 USA Baseball Bat</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Wilson-Sporting-Goods-Vapor-Baseball/dp/B0779LTCDF/ref=sr_1_30?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-30</t>
+    <t>https://www.amazon.com/Wilson-Sporting-Goods-Vapor-Baseball/dp/B0779LTCDF/ref=sr_1_30?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-30</t>
   </si>
   <si>
     <t>Louisville Slugger 2019 Solo 619 (-11) 2 5/8" USA Baseball Bat, 29"/18 oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Louisville-Slugger-2019-Solo-Baseball/dp/B07FR91VZM/ref=sr_1_31?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-31</t>
+    <t>https://www.amazon.com/Louisville-Slugger-2019-Solo-Baseball/dp/B07FR91VZM/ref=sr_1_31?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-31</t>
   </si>
   <si>
     <t>80
@@ -1470,49 +1402,49 @@
     <t>Rawlings Remix T-Ball Bat | USA Baseball | -12 | 1 Pc. Aluminum | 2 1/4 Barrel</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Rawlings-Remix-Youth-AMATBRB12-24-12/dp/B084TMKG39/ref=sr_1_35?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-35</t>
+    <t>https://www.amazon.com/Rawlings-Remix-Youth-AMATBRB12-24-12/dp/B084TMKG39/ref=sr_1_35?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-35</t>
   </si>
   <si>
     <t>Easton RIVAL -10 USA Youth Baseball Bat, 2 1/4 in. Barrel</t>
   </si>
   <si>
-    <t>https://www.amazon.com/EASTON-Baseball-Aluminum-Balanced-Cushioned/dp/B07FNTZHSH/ref=sr_1_36?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-36</t>
+    <t>https://www.amazon.com/EASTON-Baseball-Aluminum-Balanced-Cushioned/dp/B07FNTZHSH/ref=sr_1_36?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-36</t>
+  </si>
+  <si>
+    <t>Louisville Slugger K100 Ash Wood Fungo Bat</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Louisville-Slugger-WBFN100-NA-Natural-Baseball/dp/B00LLM7O5A/ref=sr_1_37?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-37</t>
   </si>
   <si>
     <t>Louisville Slugger 2020 Dynasty SPD (-10) 2 5/8" USA Baseball Bat, 29"/19 oz</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Louisville-Slugger-2020-Dynasty-Baseball/dp/B07XDC76GX/ref=sr_1_37?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-37</t>
-  </si>
-  <si>
-    <t>Louisville Slugger K100 Ash Wood Fungo Bat</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Louisville-Slugger-WBFN100-NA-Natural-Baseball/dp/B00LLM7O5A/ref=sr_1_38?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-38</t>
+    <t>https://www.amazon.com/Louisville-Slugger-2020-Dynasty-Baseball/dp/B07XDC76GX/ref=sr_1_38?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-38</t>
   </si>
   <si>
     <t>DeMarini CF (-10) USSSA Baseball Bat- 2 3/4"" Barrel - 30""/20oz, Black (WTDXCBZ 2030-21)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/DeMarini-USSSA-Baseball-Bat-Barrel/dp/B08MBFWG5G/ref=sr_1_39?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-39</t>
+    <t>https://www.amazon.com/DeMarini-USSSA-Baseball-Bat-Barrel/dp/B08MBFWG5G/ref=sr_1_39?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-39</t>
   </si>
   <si>
     <t>Cold Steel Defense Baseball Bat Brooklyn Crusher (92BSS)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cold-Steel-92BSS-Brooklyn-Crusher/dp/B001DRNLE6/ref=sr_1_40?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-40</t>
+    <t>https://www.amazon.com/Cold-Steel-92BSS-Brooklyn-Crusher/dp/B001DRNLE6/ref=sr_1_40?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-40</t>
   </si>
   <si>
     <t>Louisville Slugger 2020 Vapor (-3) 2 5/8" BBCOR Baseball Bat Series</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Louisville-Slugger-Vapor-BBCOR-Baseball/dp/B07V7H2V3C/ref=sr_1_41?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-41</t>
+    <t>https://www.amazon.com/Louisville-Slugger-Vapor-BBCOR-Baseball/dp/B07V7H2V3C/ref=sr_1_41?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-41</t>
   </si>
   <si>
     <t>Demarini CF (-8) USSSA Baseball Bat- 2 3/4" Barrel - 29",30",31",32"</t>
   </si>
   <si>
-    <t>https://www.amazon.com/DeMarini-USSSA-Baseball-Bat-Barrel/dp/B08MPHVKQB/ref=sr_1_43?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-43</t>
+    <t>https://www.amazon.com/DeMarini-USSSA-Baseball-Bat-Barrel/dp/B08MPHVKQB/ref=sr_1_43?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-43</t>
   </si>
   <si>
     <t>284
@@ -1522,13 +1454,13 @@
     <t>Rawlings 2021 Exclusive Chaos USA Youth Baseball Bat Series (-11)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Rawlings-Exclusive-Chaos-Baseball-USAC11-26/dp/B08KTWZFCY/ref=sr_1_44?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-44</t>
+    <t>https://www.amazon.com/Rawlings-Exclusive-Chaos-Baseball-USAC11-26/dp/B08KTWZFCY/ref=sr_1_44?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-44</t>
   </si>
   <si>
     <t>Louisville Slugger 2022 Meta (-3) BBCOR Baseball Bat - 31", 32", 33", 34"</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Louisville-Slugger-2022-BBCOR-Baseball/dp/B09HYS993Q/ref=sr_1_45?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-45</t>
+    <t>https://www.amazon.com/Louisville-Slugger-2022-BBCOR-Baseball/dp/B09HYS993Q/ref=sr_1_45?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-45</t>
   </si>
   <si>
     <t>499
@@ -1538,7 +1470,7 @@
     <t>Louisville Slugger 2021 SL Solo BBCOR/USSSA Baseball Bat- (-3),(-5),(-8),(-10) - 26",27",28",29",30",31",32",33",34"</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Louisville-Slugger-2021-BBCOR-Baseball/dp/B08LNTPZBN/ref=sr_1_46?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-46</t>
+    <t>https://www.amazon.com/Louisville-Slugger-2021-BBCOR-Baseball/dp/B08LNTPZBN/ref=sr_1_46?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-46</t>
   </si>
   <si>
     <t>270
@@ -1548,13 +1480,13 @@
     <t>Rawlings 2022 5150 USA Baseball Bat | -11-10 -5 | 1 Pc. Aluminum | 2 5/8 Barrel</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Rawlings-2021-5150-Baseball-inch/dp/B08KBDW1DF/ref=sr_1_47?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-47</t>
+    <t>https://www.amazon.com/Rawlings-2021-5150-Baseball-inch/dp/B08KBDW1DF/ref=sr_1_47?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-47</t>
   </si>
   <si>
     <t>Easton Ghost X Evolution -10 (2 5/8") USA Youth Baseball Bat | 2019 | 2 Piece Composite | CXN Evolution | Exact Carbon | Speed End Cap | Lizard Skin Grip</t>
   </si>
   <si>
-    <t>https://www.amazon.com/YBB19GXE10-28-Ghost-EVO-8-10/dp/B07G2MK2KX/ref=sr_1_49?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-49</t>
+    <t>https://www.amazon.com/YBB19GXE10-28-Ghost-EVO-8-10/dp/B07G2MK2KX/ref=sr_1_49?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-49</t>
   </si>
   <si>
     <t>259
@@ -1564,25 +1496,25 @@
     <t>Easton 2021 MAXUM ULTRA -3 BBCOR Baseball Bat</t>
   </si>
   <si>
-    <t>https://www.amazon.com/EASTON-MAXUM-Ultra-Baseball-Composite/dp/B089DMJ3G6/ref=sr_1_50?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-50</t>
+    <t>https://www.amazon.com/EASTON-MAXUM-Ultra-Baseball-Composite/dp/B089DMJ3G6/ref=sr_1_50?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-50</t>
   </si>
   <si>
     <t>StoreYourBoard Baseball Bat Storage Rack, 14 Bat Caddy, Hanging Organizer, Wall or Fence Mount, Equipment Holder, Fits, Solid Steel, Gloves Helmets Cleats</t>
   </si>
   <si>
-    <t>https://www.amazon.com/StoreYourBoard-Baseball-Storage-Organizer-Equipment/dp/B088TVMRGM/ref=sr_1_51?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-51</t>
+    <t>https://www.amazon.com/StoreYourBoard-Baseball-Storage-Organizer-Equipment/dp/B088TVMRGM/ref=sr_1_51?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-51</t>
   </si>
   <si>
     <t>Easton 2022 HAVOC USA Baseball Bat | -10 | 1 Pc. Aluminum | 2 1/4 Barrel</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Easton-HAVOC-10-USA-Baseball/dp/B09BG3798J/ref=sr_1_52?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-52</t>
+    <t>https://www.amazon.com/Easton-HAVOC-10-USA-Baseball/dp/B09BG3798J/ref=sr_1_52?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-52</t>
   </si>
   <si>
     <t>SKLZ Power Stick Baseball and Softball Training Bat for Strength</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SKLZ-Quick-Underload-Training-Baseball/dp/B0019GJZXW/ref=sr_1_53?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-53</t>
+    <t>https://www.amazon.com/SKLZ-Quick-Underload-Training-Baseball/dp/B0019GJZXW/ref=sr_1_53?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-53</t>
   </si>
   <si>
     <t>34
@@ -1592,19 +1524,19 @@
     <t>DeMarini 2022 Zoa (-3) BBCOR Baseball Bat - 30", 31", 32", 33", 34"</t>
   </si>
   <si>
-    <t>https://www.amazon.com/DeMarini-2022-Zoa-BBCOR-Baseball/dp/B096BMC18T/ref=sr_1_54?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-54</t>
+    <t>https://www.amazon.com/DeMarini-2022-Zoa-BBCOR-Baseball/dp/B096BMC18T/ref=sr_1_54?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-54</t>
   </si>
   <si>
     <t>Easton SPEED BBCOR Baseball Bat | -3 | 1 Pc. Aluminum</t>
   </si>
   <si>
-    <t>https://www.amazon.com/EASTON-Speed-Baseball-Aluminum-Cushioned/dp/B07FNZ5HMN/ref=sr_1_55?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-55</t>
+    <t>https://www.amazon.com/EASTON-Speed-Baseball-Aluminum-Cushioned/dp/B07FNZ5HMN/ref=sr_1_55?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-55</t>
   </si>
   <si>
     <t>Easton SPEED COMP USA Baseball Bat | -13 | 1 Pc. Composite | 2 5/8 Barrel</t>
   </si>
   <si>
-    <t>https://www.amazon.com/EASTON-Baseball-Barrel-Composite-Hyperlite/dp/B07TWN61WM/ref=sr_1_56?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-56</t>
+    <t>https://www.amazon.com/EASTON-Baseball-Barrel-Composite-Hyperlite/dp/B07TWN61WM/ref=sr_1_56?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-56</t>
   </si>
   <si>
     <t>159
@@ -1614,7 +1546,7 @@
     <t>DeMarini 2021 CF Glitch 2 3/4" USSSA Baseball Bat: -10, -8, -5</t>
   </si>
   <si>
-    <t>https://www.amazon.com/DeMarini-2021-Glitch-USSSA-Baseball/dp/B096BMC2QN/ref=sr_1_57?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-57</t>
+    <t>https://www.amazon.com/DeMarini-2021-Glitch-USSSA-Baseball/dp/B096BMC2QN/ref=sr_1_57?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-57</t>
   </si>
   <si>
     <t>300
@@ -1624,13 +1556,13 @@
     <t>Easton ADV Tee Ball Bat | USA Baseball | -13 | 1 Pc. Composite | Big Barrel</t>
   </si>
   <si>
-    <t>https://www.amazon.com/EASTON-Baseball-Composite-Hyperlite-Engineered/dp/B07TYVKLML/ref=sr_1_58?crid=1QV64PG560BAZ&amp;keywords=baseball+bat&amp;qid=1642022405&amp;sprefix=baseball+bat%2Caps%2C278&amp;sr=8-58</t>
+    <t>https://www.amazon.com/EASTON-Baseball-Composite-Hyperlite-Engineered/dp/B07TYVKLML/ref=sr_1_58?crid=2VK8H9CTOYEMS&amp;keywords=baseball+bat&amp;qid=1642023936&amp;sprefix=baseball+bat%2Caps%2C296&amp;sr=8-58</t>
   </si>
   <si>
     <t>Derminpro Men's Henley Cotton Casual Short/Long Sleeve Lightweight Button T-Shirts</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Derminpro-Henley-Shirts-Casual-Sleeve/dp/B09DYF4GJJ/ref=sr_1_4?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-4</t>
+    <t>https://www.amazon.com/Derminpro-Henley-Shirts-Casual-Sleeve/dp/B09DYF4GJJ/ref=sr_1_4?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-4</t>
   </si>
   <si>
     <t>27
@@ -1640,13 +1572,13 @@
     <t>adidas Originals Men's Tee</t>
   </si>
   <si>
-    <t>https://www.amazon.com/adidas-Originals-mens-White-Small/dp/B07ZTX3XTK/ref=sr_1_5?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-5</t>
+    <t>https://www.amazon.com/adidas-Originals-mens-White-Small/dp/B07ZTX3XTK/ref=sr_1_5?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-5</t>
   </si>
   <si>
     <t>Nike Men Futura Sportswear Logo T-Shirt</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Nike-Futura-Sportswear-T-Shirt-Medium/dp/B0977PNCKD/ref=sr_1_6?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-6</t>
+    <t>https://www.amazon.com/Nike-Futura-Sportswear-T-Shirt-Medium/dp/B0977PNCKD/ref=sr_1_6?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-6</t>
   </si>
   <si>
     <t>31
@@ -1656,31 +1588,31 @@
     <t>COOFANDY Men's Workout Hooded Tank Tops Bodybuilding Muscle Cut Off T Shirt Sleeveless Gym Hoodies</t>
   </si>
   <si>
-    <t>https://www.amazon.com/COOFANDY-Workout-Bodybuilding-Sleeveless-Hoodies/dp/B07TV3W78M/ref=sr_1_7?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-7</t>
+    <t>https://www.amazon.com/COOFANDY-Workout-Bodybuilding-Sleeveless-Hoodies/dp/B07TV3W78M/ref=sr_1_7?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-7</t>
   </si>
   <si>
     <t>Rolling Stones Men's 0's Logo T-Shirt Sand</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Small-Rolling-Stones-Vintage-T-shirt/dp/B017HMRY3E/ref=sr_1_8?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-8</t>
+    <t>https://www.amazon.com/Small-Rolling-Stones-Vintage-T-shirt/dp/B017HMRY3E/ref=sr_1_8?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-8</t>
   </si>
   <si>
     <t>My Favorite Cotton T-Shirt Made For Me Off White Double Side</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Favorite-Cotton-T-Shirt-Off-White/dp/B07VGFDHKX/ref=sr_1_9?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-9</t>
+    <t>https://www.amazon.com/Favorite-Cotton-T-Shirt-Off-White/dp/B07VGFDHKX/ref=sr_1_9?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-9</t>
   </si>
   <si>
     <t>INFITTY Women's Off Shoulder Tops Casual Loose Batwing Sleeve Shirts Tunic Knit Oversized Pullover Sweater</t>
   </si>
   <si>
-    <t>https://www.amazon.com/INFITTY-Shoulder-Pullover-Sweater-Oversized/dp/B07V67WS48/ref=sr_1_10?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-10</t>
+    <t>https://www.amazon.com/INFITTY-Shoulder-Pullover-Sweater-Oversized/dp/B07V67WS48/ref=sr_1_10?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-10</t>
   </si>
   <si>
     <t>ZOLUCKY Womens Button Down Shirts Casual Long Sleeve Jacket Shacket Boyfriend Blouses Tops</t>
   </si>
   <si>
-    <t>https://www.amazon.com/ZOLUCKY-Shacket-Jacket-Corduroy-Blouses/dp/B09KRSMF62/ref=sr_1_11?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-11</t>
+    <t>https://www.amazon.com/ZOLUCKY-Shacket-Jacket-Corduroy-Blouses/dp/B09KRSMF62/ref=sr_1_11?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-11</t>
   </si>
   <si>
     <t>33
@@ -1690,19 +1622,19 @@
     <t>Blooming Jelly Women's Off The Shoulder Tops Chiffon Blouses Long Sleeve Shirts Flattering Pom Pom Top</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Blooming-Jelly-Shoulder-Chiffon-Flattering/dp/B09CV52X6C/ref=sr_1_12?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-12</t>
+    <t>https://www.amazon.com/Blooming-Jelly-Shoulder-Chiffon-Flattering/dp/B09CV52X6C/ref=sr_1_12?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-12</t>
   </si>
   <si>
     <t>American Apparel Women's Cotton Spandex Off-Shoulder Short Sleeve Top</t>
   </si>
   <si>
-    <t>https://www.amazon.com/American-Apparel-Womens-Spandex-Off-Shoulder/dp/B07X1FN2FS/ref=sr_1_13?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-13</t>
+    <t>https://www.amazon.com/American-Apparel-Womens-Spandex-Off-Shoulder/dp/B07X1FN2FS/ref=sr_1_13?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-13</t>
   </si>
   <si>
     <t>SheIn Women's Off Shoulder Slit Sleeve Tie Cuff Blouse Top</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SheIn-Womens-Shoulder-Sleeve-X-Large/dp/B073R92KB6/ref=sr_1_14?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-14</t>
+    <t>https://www.amazon.com/SheIn-Womens-Shoulder-Sleeve-X-Large/dp/B073R92KB6/ref=sr_1_14?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-14</t>
   </si>
   <si>
     <t>25
@@ -1712,19 +1644,19 @@
     <t>WDIRARA Women's Stretchy Off Shoulder Flounce Sleeve Sexy Slim Blouse Tops Shirt</t>
   </si>
   <si>
-    <t>https://www.amazon.com/WDIRARA-Womens-Stretchy-Shoulder-Flounce/dp/B07R5NM7C3/ref=sr_1_16?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-16</t>
+    <t>https://www.amazon.com/WDIRARA-Womens-Stretchy-Shoulder-Flounce/dp/B07R5NM7C3/ref=sr_1_16?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-16</t>
   </si>
   <si>
     <t>Sipaya Summer Tops for Women Off The Shoulder Strappy T Shirts Short Sleeve</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Sipaya-Womens-Shoulder-Summer-Sleeve/dp/B07PLQ1RJ4/ref=sr_1_17?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-17</t>
+    <t>https://www.amazon.com/Sipaya-Womens-Shoulder-Summer-Sleeve/dp/B07PLQ1RJ4/ref=sr_1_17?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-17</t>
   </si>
   <si>
     <t>Billabong Men's Sundays July Short Sleeve Woven Shirt</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Billabong-Sundays-Short-Sleeve-Woven/dp/B00EDWEYBC/ref=sr_1_18?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-18</t>
+    <t>https://www.amazon.com/Billabong-Sundays-Short-Sleeve-Woven/dp/B00EDWEYBC/ref=sr_1_18?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-18</t>
   </si>
   <si>
     <t>52
@@ -1734,7 +1666,7 @@
     <t>Vince Men's Long Sleeve Thermal</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Vince-Sleeve-Thermal-White-Small/dp/B08LZ7X1GZ/ref=sr_1_19?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-19</t>
+    <t>https://www.amazon.com/Vince-Sleeve-Thermal-White-Small/dp/B08LZ7X1GZ/ref=sr_1_19?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-19</t>
   </si>
   <si>
     <t>155
@@ -1744,19 +1676,19 @@
     <t>Halife Women's Long Sleeve Boat Neck Off Shoulder Blouse Tops</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Womens-Blouses-Sleeve-Shoulder-Black/dp/B077PNF15F/ref=sr_1_20?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-20</t>
+    <t>https://www.amazon.com/Womens-Blouses-Sleeve-Shoulder-Black/dp/B077PNF15F/ref=sr_1_20?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-20</t>
   </si>
   <si>
     <t>Goodthreads Men's Short-Sleeve V-Neck Cotton T-Shirt</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Goodthreads-Short-Sleeve-V-Neck-T-Shirt-Vintage/dp/B07NBBVJN7/ref=sr_1_21?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-21</t>
+    <t>https://www.amazon.com/Goodthreads-Short-Sleeve-V-Neck-T-Shirt-Vintage/dp/B07NBBVJN7/ref=sr_1_21?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-21</t>
   </si>
   <si>
     <t>SheIn Women's Long Sleeve V Neck Ruffle Blouse Off Shoulder Tie Waist Wrap Tops</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SheIn-Womens-Sleeve-Shoulder-X-Large/dp/B07R58GNHY/ref=sr_1_22?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-22</t>
+    <t>https://www.amazon.com/SheIn-Womens-Sleeve-Shoulder-X-Large/dp/B07R58GNHY/ref=sr_1_22?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-22</t>
   </si>
   <si>
     <t>40
@@ -1766,145 +1698,145 @@
     <t>Amazon Essentials Women's Classic-fit Bracelet Length Sleeve Poplin Shirt</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Amazon-Essentials-Classic-Fit-Bracelet-XX-Large/dp/B08NX9D5Q3/ref=sr_1_23?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-23</t>
+    <t>https://www.amazon.com/Amazon-Essentials-Classic-Fit-Bracelet-XX-Large/dp/B08NX9D5Q3/ref=sr_1_23?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-23</t>
   </si>
   <si>
     <t>Billabong Men's Essential Pocket Ww</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Billabong-Mens-Essential-Pocket-White/dp/B08TJ4M9LS/ref=sr_1_24?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-24</t>
+    <t>https://www.amazon.com/Billabong-Mens-Essential-Pocket-White/dp/B08TJ4M9LS/ref=sr_1_24?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-24</t>
   </si>
   <si>
     <t>Romwe Women's Casual Cross Off Shoulder Deep V Neck Ribbed Knit Slim Wrap Tee Shirt Blouse</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Romwe-Womens-Asymmetrical-Ribbed-Blouse/dp/B07M69NQGH/ref=sr_1_25?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-25</t>
+    <t>https://www.amazon.com/Romwe-Womens-Asymmetrical-Ribbed-Blouse/dp/B07M69NQGH/ref=sr_1_25?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-25</t>
   </si>
   <si>
     <t>ZAFUL Women's Long Sleeve Lace-up A Line Shirt Dress V Neck Plunging Top Blouse Tunic Shirt Mini Dress</t>
   </si>
   <si>
-    <t>https://www.amazon.com/ZAFUL-Womens-Sleeve-Lace-up-Plunging/dp/B0992CW3RN/ref=sr_1_26?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-26</t>
+    <t>https://www.amazon.com/ZAFUL-Womens-Sleeve-Lace-up-Plunging/dp/B0992CW3RN/ref=sr_1_26?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-26</t>
   </si>
   <si>
     <t>Romwe Women's Off The Shoulder Flounce Long Sleeve Shirred Crop Tops Blouse</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Romwe-Womens-Shoulder-Flounce-Shirred/dp/B08DCWQTWT/ref=sr_1_27?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-27</t>
+    <t>https://www.amazon.com/Romwe-Womens-Shoulder-Flounce-Shirred/dp/B08DCWQTWT/ref=sr_1_27?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-27</t>
   </si>
   <si>
     <t>SOLY HUX Women's Plus Size Leopard Print Long Sleeve Top Off Shoulder Frill Trim Blouse</t>
   </si>
   <si>
-    <t>https://www.amazon.com/SOLY-HUX-Womens-Shoulder-Gingham/dp/B098QRTKM1/ref=sr_1_31?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-31</t>
+    <t>https://www.amazon.com/SOLY-HUX-Womens-Shoulder-Gingham/dp/B098QRTKM1/ref=sr_1_31?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-31</t>
   </si>
   <si>
     <t>Paitluc Blouses for Women Lantern Sleeve Summer Fashion Off Shoulder Top Size S-2XL</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Paitluc-Blouses-Elastic-Shoulder-Lantern/dp/B0836TTQBN/ref=sr_1_32?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-32</t>
+    <t>https://www.amazon.com/Paitluc-Blouses-Elastic-Shoulder-Lantern/dp/B0836TTQBN/ref=sr_1_32?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-32</t>
   </si>
   <si>
     <t>Amazon Essentials Men's Regular-fit Quick-Dry Golf Polo Shirt</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Amazon-Essentials-Regular-Fit-Quick-Dry-Shirt/dp/B01IXFRHNG/ref=sr_1_33?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-33</t>
+    <t>https://www.amazon.com/Amazon-Essentials-Regular-Fit-Quick-Dry-Shirt/dp/B01IXFRHNG/ref=sr_1_33?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-33</t>
   </si>
   <si>
     <t>Goodthreads Women's Brushed Flannel Drop-Shoulder Long-Sleeve Shirt</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Amazon-Brand-Goodthreads-Drop-Shoulder-Long-Sleeve/dp/B07PK23PL5/ref=sr_1_34?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-34</t>
+    <t>https://www.amazon.com/Amazon-Brand-Goodthreads-Drop-Shoulder-Long-Sleeve/dp/B07PK23PL5/ref=sr_1_34?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-34</t>
   </si>
   <si>
     <t>ASSHE Workout Fits for Women 2 Piece Sets Ribbed Seamless Yoga Outfits Gym High Waist Legging Suits</t>
   </si>
   <si>
-    <t>https://www.amazon.com/ASSHE-Workout-Seamless-Outfits-Tracksuit/dp/B09G6DQKL2/ref=sr_1_35?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-35</t>
+    <t>https://www.amazon.com/ASSHE-Workout-Seamless-Outfits-Tracksuit/dp/B09G6DQKL2/ref=sr_1_35?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-35</t>
   </si>
   <si>
     <t>Roxy Women's Bali Shore Off The Shoulder Top</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Roxy-Womens-Shore-Shoulder-White/dp/B08J9D3JZ4/ref=sr_1_36?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-36</t>
+    <t>https://www.amazon.com/Roxy-Womens-Shore-Shoulder-White/dp/B08J9D3JZ4/ref=sr_1_36?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-36</t>
   </si>
   <si>
     <t>ZEROYAA Men's Rose Floral Long Sleeve Dress Shirts Shiny Satin Silk Like Jacquard Party Prom Shirt Tops</t>
   </si>
   <si>
-    <t>https://www.amazon.com/ZEROYAA-Floral-Sleeve-Jacquard-ZLCL24-Off-White/dp/B08BCGGXCJ/ref=sr_1_37?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-37</t>
+    <t>https://www.amazon.com/ZEROYAA-Floral-Sleeve-Jacquard-ZLCL24-Off-White/dp/B08BCGGXCJ/ref=sr_1_37?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-37</t>
   </si>
   <si>
     <t>LYANER Women's Ruffle Short Sleeve Tie Up Back Crop Top Off Shoulder Bardot Blouse</t>
   </si>
   <si>
-    <t>https://www.amazon.com/LYANER-Womens-Ruffle-Sleeve-Shoulder/dp/B08HD8Y8RK/ref=sr_1_38?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-38</t>
+    <t>https://www.amazon.com/LYANER-Womens-Ruffle-Sleeve-Shoulder/dp/B08HD8Y8RK/ref=sr_1_38?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-38</t>
   </si>
   <si>
     <t>Amazon Brand - Goodthreads Men's Slim-Fit Short-Sleeve Crewneck Cotton T-Shirt, Vintage White, XX-Large Tall</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Goodthreads-Short-Sleeve-Crewneck-T-Shirt-XX-Large/dp/B07NB7WZ3N/ref=sr_1_39?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-39</t>
+    <t>https://www.amazon.com/Goodthreads-Short-Sleeve-Crewneck-T-Shirt-XX-Large/dp/B07NB7WZ3N/ref=sr_1_39?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-39</t>
   </si>
   <si>
     <t>Womens Corduroy Shirts Casual Boyfriend Long Sleeve Button Down Oversized Blouses Tops</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Womens-Corduroy-Boyfriend-Oversized-Blouses/dp/B09L7VFN9V/ref=sr_1_40?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-40</t>
+    <t>https://www.amazon.com/Womens-Corduroy-Boyfriend-Oversized-Blouses/dp/B09L7VFN9V/ref=sr_1_40?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-40</t>
   </si>
   <si>
     <t>LYANER Women's Cute Off Shoulder Long Sleeve Self Tie Knot Crop Tube Top Blouse</t>
   </si>
   <si>
-    <t>https://www.amazon.com/LYANER-Womens-Shoulder-Sleeve-X-Large/dp/B08RSBCN4X/ref=sr_1_41?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-41</t>
+    <t>https://www.amazon.com/LYANER-Womens-Shoulder-Sleeve-X-Large/dp/B08RSBCN4X/ref=sr_1_41?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-41</t>
   </si>
   <si>
     <t>icyzone Long Sleeve Workout Running Exercise Yoga Athletic Shirts for Women,V Neck Undershrits Tops with Thumb Holes</t>
   </si>
   <si>
-    <t>https://www.amazon.com/icyzone-Workout-Exercise-Athletic-Undershrits/dp/B083HSL64Y/ref=sr_1_42?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-42</t>
+    <t>https://www.amazon.com/icyzone-Workout-Exercise-Athletic-Undershrits/dp/B083HSL64Y/ref=sr_1_42?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-42</t>
   </si>
   <si>
     <t>Under Armour Men's Project Rock B.s.r. Cut-Off T-Shirt</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Under-Armour-Project-Cut-Off-XX-Large/dp/B0822211D4/ref=sr_1_43?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-43</t>
+    <t>https://www.amazon.com/Under-Armour-Project-Cut-Off-XX-Large/dp/B0822211D4/ref=sr_1_43?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-43</t>
   </si>
   <si>
     <t>Asvivid Womens Swiss Polka Printed Smocked Off The Shoulder Tops Summer Flared Bell Sleeve Chiffon Blouses T-Shirt</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Asvivid-Crochet-Shoulder-Chiffon-Blouses/dp/B08C6ZDK49/ref=sr_1_44?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-44</t>
+    <t>https://www.amazon.com/Asvivid-Crochet-Shoulder-Chiffon-Blouses/dp/B08C6ZDK49/ref=sr_1_44?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-44</t>
   </si>
   <si>
     <t>Goodthreads Men's Standard-Fit Short-Sleeve Seersucker Shirt</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Goodthreads-Standard-Fit-Short-Sleeve-Seersucker-Medium/dp/B0774124Q2/ref=sr_1_45?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-45</t>
+    <t>https://www.amazon.com/Goodthreads-Standard-Fit-Short-Sleeve-Seersucker-Medium/dp/B0774124Q2/ref=sr_1_45?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-45</t>
   </si>
   <si>
     <t>HUHOT Womens Basic Short Sleeve Off-Shoulder Short Cami Crop Tank Top</t>
   </si>
   <si>
-    <t>https://www.amazon.com/HUHOT-Womens-Basic-Sleeve-Off-Shoulder/dp/B0771CKQC1/ref=sr_1_46?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-46</t>
+    <t>https://www.amazon.com/HUHOT-Womens-Basic-Sleeve-Off-Shoulder/dp/B0771CKQC1/ref=sr_1_46?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-46</t>
   </si>
   <si>
     <t>Women's Sexy Off The Shoulder Crop Top Solid Color Ruffled Short Sleeve Tube Cropped Blouse Tops</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Womens-Strapless-Shoulder-Ruffled-T-shirt/dp/B06Y4121QR/ref=sr_1_47?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-47</t>
+    <t>https://www.amazon.com/Womens-Strapless-Shoulder-Ruffled-T-shirt/dp/B06Y4121QR/ref=sr_1_47?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-47</t>
   </si>
   <si>
     <t>AUDATE Mens Cotton Linen Shirt Casual Long Sleeve Henley Shirt Solid Tops</t>
   </si>
   <si>
-    <t>https://www.amazon.com/AUDATE-Winter-Casual-Sleeve-Banded/dp/B087Q2XQYC/ref=sr_1_48?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-48</t>
+    <t>https://www.amazon.com/AUDATE-Winter-Casual-Sleeve-Banded/dp/B087Q2XQYC/ref=sr_1_48?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-48</t>
   </si>
   <si>
     <t>BCBGMAXAZRIA Women's Cut Out Knit Top</t>
   </si>
   <si>
-    <t>https://www.amazon.com/BCBGMAXAZRIA-Womens-Knit-White-Large/dp/B095JBD5LD/ref=sr_1_49?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-49</t>
+    <t>https://www.amazon.com/BCBGMAXAZRIA-Womens-Knit-White-Large/dp/B095JBD5LD/ref=sr_1_49?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-49</t>
   </si>
   <si>
     <t>63
@@ -1914,7 +1846,7 @@
     <t>Lucky Brand Women's Long Sleeve Off The Shoulder Top</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Lucky-Brand-Womens-Sleeve-Shoulder/dp/B08T858T77/ref=sr_1_50?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-50</t>
+    <t>https://www.amazon.com/Lucky-Brand-Womens-Sleeve-Shoulder/dp/B08T858T77/ref=sr_1_50?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-50</t>
   </si>
   <si>
     <t>86
@@ -1924,13 +1856,13 @@
     <t>Under Armour Men's HeatGear Compression Long-Sleeve T-Shirt</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Under-Armour-HeatGear-Compression-Long-Sleeve/dp/B0874X381B/ref=sr_1_51?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-51</t>
+    <t>https://www.amazon.com/Under-Armour-HeatGear-Compression-Long-Sleeve/dp/B0874X381B/ref=sr_1_51?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-51</t>
   </si>
   <si>
     <t>Under Armour Men's UA ColdGear Grid Mock Long Sleeve T-Shirt Tee Fitted Shirt 1357359</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Under-Armour-ColdGear-T-Shirt-1357359/dp/B08WPZ6TPC/ref=sr_1_52?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-52</t>
+    <t>https://www.amazon.com/Under-Armour-ColdGear-T-Shirt-1357359/dp/B08WPZ6TPC/ref=sr_1_52?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-52</t>
   </si>
   <si>
     <t>51
@@ -1940,7 +1872,7 @@
     <t>BCBGMAXAZRIA Women's Double Strap One Shoulder Tank Top</t>
   </si>
   <si>
-    <t>https://www.amazon.com/BCBGMAXAZRIA-Womens-Double-Strap-Shoulder/dp/B094519PMB/ref=sr_1_53?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-53</t>
+    <t>https://www.amazon.com/BCBGMAXAZRIA-Womens-Double-Strap-Shoulder/dp/B094519PMB/ref=sr_1_53?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-53</t>
   </si>
   <si>
     <t>64
@@ -1950,7 +1882,7 @@
     <t>Remidoo Women's Sexy Off Shoulder Ruched Slim Fit Long Sleeve Crop Top T Shirt</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Remidoo-Womens-Shoulder-Ruched-Sleeve/dp/B09533NQFR/ref=sr_1_54?crid=377CC856RIDF1&amp;keywords=off+white+shirt&amp;qid=1642022409&amp;sprefix=off+white+shirt%2Caps%2C346&amp;sr=8-54</t>
+    <t>https://www.amazon.com/Remidoo-Womens-Shoulder-Ruched-Sleeve/dp/B09533NQFR/ref=sr_1_54?crid=2BCA5OEM6S17J&amp;keywords=off+white+shirt&amp;qid=1642023941&amp;sprefix=off+white+shirt%2Caps%2C318&amp;sr=8-54</t>
   </si>
 </sst>
 </file>
@@ -2329,94 +2261,96 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2438,94 +2372,92 @@
         <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2534,28 +2466,30 @@
       <c r="B23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2565,223 +2499,215 @@
       <c r="B26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2807,434 +2733,440 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>171</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>180</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C33" s="4"/>
+        <v>171</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>152</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>82</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>204</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3257,454 +3189,460 @@
     <col min="3" max="3" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>209</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>195</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>220</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>204</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>207</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>229</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>217</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>220</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>239</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>242</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>245</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>229</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>180</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>171</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>209</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>209</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>209</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>209</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>209</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3722,518 +3660,518 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>232</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>304</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>330</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>189</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>335</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>152</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>304</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>209</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4251,477 +4189,477 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>209</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>443</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -4739,510 +4677,510 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>209</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>602</v>
+        <v>580</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>603</v>
+        <v>581</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>604</v>
+        <v>582</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>606</v>
+        <v>584</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>613</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
